--- a/Code/Results/Cases/Case_5_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.95978430308661</v>
+        <v>20.91394479501448</v>
       </c>
       <c r="C2">
-        <v>11.82516491046104</v>
+        <v>14.32835976170273</v>
       </c>
       <c r="D2">
-        <v>9.967226722836543</v>
+        <v>2.97722730479904</v>
       </c>
       <c r="E2">
-        <v>12.64685381950227</v>
+        <v>6.992773097198858</v>
       </c>
       <c r="F2">
-        <v>63.29491244355388</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>39.3706954334402</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.993260135923056</v>
       </c>
       <c r="K2">
-        <v>15.78163571959916</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.86679307883541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.54331235545164</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>29.2945132835453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.60913885422831</v>
+        <v>19.42594378173762</v>
       </c>
       <c r="C3">
-        <v>10.95198754346137</v>
+        <v>13.31753403759929</v>
       </c>
       <c r="D3">
-        <v>9.491841948688515</v>
+        <v>2.954000954776526</v>
       </c>
       <c r="E3">
-        <v>11.87277283282583</v>
+        <v>6.950683081757111</v>
       </c>
       <c r="F3">
-        <v>59.41620701708639</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>37.94329513174735</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.011873352476831</v>
       </c>
       <c r="K3">
-        <v>14.62918531861203</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.65026023897371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.83227477705333</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>28.31622852989245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.74429037258973</v>
+        <v>18.46552091293006</v>
       </c>
       <c r="C4">
-        <v>10.39504717986813</v>
+        <v>12.66456715239428</v>
       </c>
       <c r="D4">
-        <v>9.194740440612124</v>
+        <v>2.940392025949758</v>
       </c>
       <c r="E4">
-        <v>11.38653128608005</v>
+        <v>6.928141283891617</v>
       </c>
       <c r="F4">
-        <v>56.96444372711612</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>37.08130784364529</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.025854134807821</v>
       </c>
       <c r="K4">
-        <v>13.89157465348462</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.87132380977037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.38813535639381</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>27.72963039598949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.38262610998132</v>
+        <v>18.06222537636632</v>
       </c>
       <c r="C5">
-        <v>10.16262179535122</v>
+        <v>12.39022417725054</v>
       </c>
       <c r="D5">
-        <v>9.072351100281011</v>
+        <v>2.935005798295749</v>
       </c>
       <c r="E5">
-        <v>11.18566420549084</v>
+        <v>6.919765536767128</v>
       </c>
       <c r="F5">
-        <v>55.94768999089266</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>36.73389028956588</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.0321715932023</v>
       </c>
       <c r="K5">
-        <v>13.58317918136535</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.54559262315752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.20544603296973</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>27.49422233310808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.32200650645125</v>
+        <v>17.99453470330013</v>
       </c>
       <c r="C6">
-        <v>10.12369107467433</v>
+        <v>12.34416764033198</v>
       </c>
       <c r="D6">
-        <v>9.051949093459246</v>
+        <v>2.934120941709339</v>
       </c>
       <c r="E6">
-        <v>11.15214818380956</v>
+        <v>6.918423106509958</v>
       </c>
       <c r="F6">
-        <v>55.77779834057092</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>36.67644131557491</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.033257454887782</v>
       </c>
       <c r="K6">
-        <v>13.53149108451366</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.49099614797775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.17501472063796</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>27.45535566581976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.73945058450729</v>
+        <v>18.46013036131238</v>
       </c>
       <c r="C7">
-        <v>10.39193504222476</v>
+        <v>12.66090084957298</v>
       </c>
       <c r="D7">
-        <v>9.193095183711829</v>
+        <v>2.940318744700303</v>
       </c>
       <c r="E7">
-        <v>11.38383324892643</v>
+        <v>6.928025071276799</v>
       </c>
       <c r="F7">
-        <v>56.95080266519811</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>37.07660655247896</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.02593685068671</v>
       </c>
       <c r="K7">
-        <v>13.88744749618521</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.86696485712706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.3856781254281</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>27.72644074239602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.50127271789223</v>
+        <v>20.41049576190652</v>
       </c>
       <c r="C8">
-        <v>11.52826145924204</v>
+        <v>13.98645495212907</v>
       </c>
       <c r="D8">
-        <v>9.804383870120471</v>
+        <v>2.969080490436213</v>
       </c>
       <c r="E8">
-        <v>12.38222734580138</v>
+        <v>6.97756302458378</v>
       </c>
       <c r="F8">
-        <v>61.97204793481219</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>38.87564934433485</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.999134815270335</v>
       </c>
       <c r="K8">
-        <v>15.3903269223415</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.45380031054512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.29982366696256</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>28.95433228614814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.68930466731256</v>
+        <v>23.87168449609106</v>
       </c>
       <c r="C9">
-        <v>13.60368936990617</v>
+        <v>16.33564425528932</v>
       </c>
       <c r="D9">
-        <v>10.96354646929293</v>
+        <v>3.030922814526092</v>
       </c>
       <c r="E9">
-        <v>14.25469252166492</v>
+        <v>7.10183795538863</v>
       </c>
       <c r="F9">
-        <v>71.27345410733055</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>42.51102009913778</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.967879541152697</v>
       </c>
       <c r="K9">
-        <v>18.11320463935523</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.32559440856183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16.18061446731339</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>31.47096082025881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.89356018899785</v>
+        <v>26.20521616408502</v>
       </c>
       <c r="C10">
-        <v>15.05520510308541</v>
+        <v>17.91845010587421</v>
       </c>
       <c r="D10">
-        <v>11.79597358811634</v>
+        <v>3.080164623375893</v>
       </c>
       <c r="E10">
-        <v>15.5850684417641</v>
+        <v>7.211057325422473</v>
       </c>
       <c r="F10">
-        <v>77.8104260125792</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>45.24263159988813</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.959503646777901</v>
       </c>
       <c r="K10">
-        <v>19.99934101563864</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.31164434715922</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17.73759405329097</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.38521279283424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.87316933822745</v>
+        <v>27.22444801272199</v>
       </c>
       <c r="C11">
-        <v>15.70513135021512</v>
+        <v>18.60976559820712</v>
       </c>
       <c r="D11">
-        <v>12.17236242953655</v>
+        <v>3.103541587369482</v>
       </c>
       <c r="E11">
-        <v>16.22509496768119</v>
+        <v>7.264966256780209</v>
       </c>
       <c r="F11">
-        <v>80.73344530801612</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>46.4991034424439</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.959259726810597</v>
       </c>
       <c r="K11">
-        <v>20.8386892675842</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.1944334104016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18.41736617684527</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.27106639482631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.24149586003979</v>
+        <v>27.60461658186767</v>
       </c>
       <c r="C12">
-        <v>15.95031928911238</v>
+        <v>18.86763924044673</v>
       </c>
       <c r="D12">
-        <v>12.31478289588635</v>
+        <v>3.112550296148827</v>
       </c>
       <c r="E12">
-        <v>16.4729988046636</v>
+        <v>7.286018374920842</v>
       </c>
       <c r="F12">
-        <v>81.83461823421023</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>46.9770632437169</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.959717720879515</v>
       </c>
       <c r="K12">
-        <v>21.15447371301064</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.52638470237136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18.67088182602016</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>34.60883368489526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.16227460756775</v>
+        <v>27.522993077667</v>
       </c>
       <c r="C13">
-        <v>15.89754455765529</v>
+        <v>18.81227183157698</v>
       </c>
       <c r="D13">
-        <v>12.28411082640813</v>
+        <v>3.110602863653445</v>
       </c>
       <c r="E13">
-        <v>16.41968110879689</v>
+        <v>7.281455525366451</v>
       </c>
       <c r="F13">
-        <v>81.59768522617729</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>46.87402601459571</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.959593963803207</v>
       </c>
       <c r="K13">
-        <v>21.08654414979663</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.45498580486533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18.61645268917257</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>34.53598332249064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.90352003459009</v>
+        <v>27.25583900368548</v>
       </c>
       <c r="C14">
-        <v>15.72531799367216</v>
+        <v>18.63105810185257</v>
       </c>
       <c r="D14">
-        <v>12.18408017180828</v>
+        <v>3.104279501740862</v>
       </c>
       <c r="E14">
-        <v>16.24552375755911</v>
+        <v>7.266685253500636</v>
       </c>
       <c r="F14">
-        <v>80.82414336925852</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>46.53838079493809</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.959286146383115</v>
       </c>
       <c r="K14">
-        <v>20.86470627965368</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.22178611558255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18.438299983594</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>34.29880720454455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.74470575939682</v>
+        <v>27.0914543207046</v>
       </c>
       <c r="C15">
-        <v>15.6197225412056</v>
+        <v>18.51955678038638</v>
       </c>
       <c r="D15">
-        <v>12.12280175865403</v>
+        <v>3.100427155277541</v>
       </c>
       <c r="E15">
-        <v>16.13862509211759</v>
+        <v>7.25772208574289</v>
       </c>
       <c r="F15">
-        <v>80.34963694161301</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>46.33307681368446</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.959170457136446</v>
       </c>
       <c r="K15">
-        <v>20.7285767350347</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.07866044500732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18.32867482147738</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.15383707950582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.82913160878104</v>
+        <v>26.13777976671967</v>
       </c>
       <c r="C16">
-        <v>15.0125680944398</v>
+        <v>17.87271117981198</v>
       </c>
       <c r="D16">
-        <v>11.7713470349477</v>
+        <v>3.078657819080767</v>
       </c>
       <c r="E16">
-        <v>15.5458585424661</v>
+        <v>7.207621785048929</v>
       </c>
       <c r="F16">
-        <v>77.61850538025634</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>45.16080887459506</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.959594466820124</v>
       </c>
       <c r="K16">
-        <v>19.9441628468106</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.25358722583016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17.69261231087068</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.32763406316461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.26198946732357</v>
+        <v>25.54209237045633</v>
       </c>
       <c r="C17">
-        <v>14.63781106513026</v>
+        <v>17.46868486240266</v>
       </c>
       <c r="D17">
-        <v>11.55529262964523</v>
+        <v>3.065563444748018</v>
       </c>
       <c r="E17">
-        <v>15.20149229854373</v>
+        <v>7.177989494616288</v>
       </c>
       <c r="F17">
-        <v>75.93105829421894</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>44.44529378778554</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.960793449898842</v>
       </c>
       <c r="K17">
-        <v>19.45857893725807</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.74254885433083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17.29524284777197</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>32.82472263163348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.93355996385947</v>
+        <v>25.19546756657422</v>
       </c>
       <c r="C18">
-        <v>14.42124448211127</v>
+        <v>17.23358291502906</v>
       </c>
       <c r="D18">
-        <v>11.43079225776249</v>
+        <v>3.058122690411211</v>
       </c>
       <c r="E18">
-        <v>15.00274313580761</v>
+        <v>7.161341405478244</v>
       </c>
       <c r="F18">
-        <v>74.95559578155691</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>44.03503535781963</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.961816280103438</v>
       </c>
       <c r="K18">
-        <v>19.17748352123263</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.44662303204541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17.06399017043151</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.53686463305074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.82195827382706</v>
+        <v>25.07741086660303</v>
       </c>
       <c r="C19">
-        <v>14.34772868186707</v>
+        <v>17.15350865680413</v>
       </c>
       <c r="D19">
-        <v>11.38859308492782</v>
+        <v>3.05561854075127</v>
       </c>
       <c r="E19">
-        <v>14.93532451520348</v>
+        <v>7.155771723385218</v>
       </c>
       <c r="F19">
-        <v>74.62444006140608</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>43.89634654090954</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.962218743125319</v>
       </c>
       <c r="K19">
-        <v>19.0819830392357</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.34606850237074</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16.98522316996419</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.43963857421399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.32258831467181</v>
+        <v>25.60591642226744</v>
       </c>
       <c r="C20">
-        <v>14.67780600958448</v>
+        <v>17.51197383547207</v>
       </c>
       <c r="D20">
-        <v>11.57831456372999</v>
+        <v>3.066947863078158</v>
       </c>
       <c r="E20">
-        <v>15.23821872902186</v>
+        <v>7.181102747547401</v>
       </c>
       <c r="F20">
-        <v>76.11118565292369</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>44.5213275196549</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.96063107151763</v>
       </c>
       <c r="K20">
-        <v>19.51045235070103</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.79715153225224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17.33782118298421</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>32.87811233246778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.97958769892621</v>
+        <v>27.33446333815549</v>
       </c>
       <c r="C21">
-        <v>15.77592512896246</v>
+        <v>18.68438930242397</v>
       </c>
       <c r="D21">
-        <v>12.21346252576185</v>
+        <v>3.106132438340945</v>
       </c>
       <c r="E21">
-        <v>16.29672337340658</v>
+        <v>7.27100606467766</v>
       </c>
       <c r="F21">
-        <v>81.05149166772546</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>46.63690736426191</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.959361303374788</v>
       </c>
       <c r="K21">
-        <v>20.92991571238591</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.29034042189261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>18.4907318714051</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>34.36840720152126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.04762941543093</v>
+        <v>28.43056820545833</v>
       </c>
       <c r="C22">
-        <v>16.48856941125051</v>
+        <v>19.42794504198497</v>
       </c>
       <c r="D22">
-        <v>12.62807748751116</v>
+        <v>3.132663287187115</v>
       </c>
       <c r="E22">
-        <v>17.01546117732986</v>
+        <v>7.333498659157829</v>
       </c>
       <c r="F22">
-        <v>84.24803596264296</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>48.03232057339778</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.96175990728528</v>
       </c>
       <c r="K22">
-        <v>21.84600388930949</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.25296555888568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>19.22160757814187</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>35.35601572936869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.47869234250486</v>
+        <v>27.8485250387033</v>
       </c>
       <c r="C23">
-        <v>16.10846018842146</v>
+        <v>19.03309275637767</v>
       </c>
       <c r="D23">
-        <v>12.40674531420954</v>
+        <v>3.118412739167599</v>
       </c>
       <c r="E23">
-        <v>16.6326288488767</v>
+        <v>7.299792303657496</v>
       </c>
       <c r="F23">
-        <v>82.54429221317496</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>47.28630859176243</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.960170801653902</v>
       </c>
       <c r="K23">
-        <v>21.35789261257055</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.74016491906075</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18.83352281328365</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>34.82759419140714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.29519901405097</v>
+        <v>25.57707453552707</v>
       </c>
       <c r="C24">
-        <v>14.65972780525122</v>
+        <v>17.4924116961099</v>
       </c>
       <c r="D24">
-        <v>11.56790725926807</v>
+        <v>3.066321696543802</v>
       </c>
       <c r="E24">
-        <v>15.22161712769273</v>
+        <v>7.17969403989883</v>
       </c>
       <c r="F24">
-        <v>76.02976677833534</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>44.48694925229507</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.960703446732932</v>
       </c>
       <c r="K24">
-        <v>19.48700642711263</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.772472319918</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17.3185802527999</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>32.85397089545452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.8531059409355</v>
+        <v>22.9730788508509</v>
       </c>
       <c r="C25">
-        <v>13.05673137901638</v>
+        <v>15.72599441314949</v>
       </c>
       <c r="D25">
-        <v>10.65382197188211</v>
+        <v>3.013566642653438</v>
       </c>
       <c r="E25">
-        <v>13.75682634044418</v>
+        <v>7.065176947779049</v>
       </c>
       <c r="F25">
-        <v>68.81286434998617</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>41.51680673321331</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.97389796526732</v>
       </c>
       <c r="K25">
-        <v>17.39849583282237</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.57227908729075</v>
+        <v>15.58075193001121</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.7787683068334</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91394479501448</v>
+        <v>12.36210925954403</v>
       </c>
       <c r="C2">
-        <v>14.32835976170273</v>
+        <v>7.216105280973234</v>
       </c>
       <c r="D2">
-        <v>2.97722730479904</v>
+        <v>2.771266550080338</v>
       </c>
       <c r="E2">
-        <v>6.992773097198858</v>
+        <v>5.706328552048758</v>
       </c>
       <c r="F2">
-        <v>39.3706954334402</v>
+        <v>47.95575489900871</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>34.12765037509642</v>
       </c>
       <c r="J2">
-        <v>5.993260135923056</v>
+        <v>6.474537253047707</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.10599294210876</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.675702223601848</v>
       </c>
       <c r="M2">
-        <v>14.54331235545164</v>
+        <v>10.1333537766013</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.2945132835453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.42594378173762</v>
+        <v>11.78744468889894</v>
       </c>
       <c r="C3">
-        <v>13.31753403759929</v>
+        <v>6.705192438382919</v>
       </c>
       <c r="D3">
-        <v>2.954000954776526</v>
+        <v>2.767114660704949</v>
       </c>
       <c r="E3">
-        <v>6.950683081757111</v>
+        <v>5.72912477718564</v>
       </c>
       <c r="F3">
-        <v>37.94329513174735</v>
+        <v>46.90026588654261</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>33.55432624274046</v>
       </c>
       <c r="J3">
-        <v>6.011873352476831</v>
+        <v>6.495415251642224</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.64920622668732</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.654083407997614</v>
       </c>
       <c r="M3">
-        <v>13.83227477705333</v>
+        <v>9.987762356490249</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.31622852989245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.46552091293006</v>
+        <v>11.43067729096128</v>
       </c>
       <c r="C4">
-        <v>12.66456715239428</v>
+        <v>6.417543122502193</v>
       </c>
       <c r="D4">
-        <v>2.940392025949758</v>
+        <v>2.763950544274183</v>
       </c>
       <c r="E4">
-        <v>6.928141283891617</v>
+        <v>5.744368275888845</v>
       </c>
       <c r="F4">
-        <v>37.08130784364529</v>
+        <v>46.26199240466813</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>33.21044862429184</v>
       </c>
       <c r="J4">
-        <v>6.025854134807821</v>
+        <v>6.508932715287538</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.36792922516087</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.64377321553074</v>
       </c>
       <c r="M4">
-        <v>13.38813535639381</v>
+        <v>9.903842724275648</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.72963039598949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.06222537636632</v>
+        <v>11.28452529997353</v>
       </c>
       <c r="C5">
-        <v>12.39022417725054</v>
+        <v>6.297894009466519</v>
       </c>
       <c r="D5">
-        <v>2.935005798295749</v>
+        <v>2.762507905076061</v>
       </c>
       <c r="E5">
-        <v>6.919765536767128</v>
+        <v>5.750891732272111</v>
       </c>
       <c r="F5">
-        <v>36.73389028956588</v>
+        <v>46.00448874262641</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>33.072383608214</v>
       </c>
       <c r="J5">
-        <v>6.0321715932023</v>
+        <v>6.514617640499853</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.25327147050004</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.640303494519823</v>
       </c>
       <c r="M5">
-        <v>13.20544603296973</v>
+        <v>9.87102776866999</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.49422233310808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.99453470330013</v>
+        <v>11.26021761482707</v>
       </c>
       <c r="C6">
-        <v>12.34416764033198</v>
+        <v>6.27788220446242</v>
       </c>
       <c r="D6">
-        <v>2.934120941709339</v>
+        <v>2.762259139145744</v>
       </c>
       <c r="E6">
-        <v>6.918423106509958</v>
+        <v>5.751993717354841</v>
       </c>
       <c r="F6">
-        <v>36.67644131557491</v>
+        <v>45.96189133367509</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>33.04958347669167</v>
       </c>
       <c r="J6">
-        <v>6.033257454887782</v>
+        <v>6.515572299655783</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.23423579625377</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.639771148997429</v>
       </c>
       <c r="M6">
-        <v>13.17501472063796</v>
+        <v>9.86566253911789</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.45535566581976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.46013036131238</v>
+        <v>11.42870902389974</v>
       </c>
       <c r="C7">
-        <v>12.66090084957298</v>
+        <v>6.415939217506591</v>
       </c>
       <c r="D7">
-        <v>2.940318744700303</v>
+        <v>2.763931707045946</v>
       </c>
       <c r="E7">
-        <v>6.928025071276799</v>
+        <v>5.744454994101124</v>
       </c>
       <c r="F7">
-        <v>37.07660655247896</v>
+        <v>46.25850892204969</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>33.20857823267988</v>
       </c>
       <c r="J7">
-        <v>6.02593685068671</v>
+        <v>6.509008668620724</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.3663828166639</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.643723476708381</v>
       </c>
       <c r="M7">
-        <v>13.3856781254281</v>
+        <v>9.903394563909735</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.72644074239602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.41049576190652</v>
+        <v>12.16490064115225</v>
       </c>
       <c r="C8">
-        <v>13.98645495212907</v>
+        <v>7.041245429636232</v>
       </c>
       <c r="D8">
-        <v>2.969080490436213</v>
+        <v>2.769963443664255</v>
       </c>
       <c r="E8">
-        <v>6.97756302458378</v>
+        <v>5.713928804450607</v>
       </c>
       <c r="F8">
-        <v>38.87564934433485</v>
+        <v>47.58986628389209</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>33.92828907519773</v>
       </c>
       <c r="J8">
-        <v>5.999134815270335</v>
+        <v>6.481591585552024</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.94875540841121</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.667624798467236</v>
       </c>
       <c r="M8">
-        <v>14.29982366696256</v>
+        <v>10.08202223332599</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.95433228614814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.87168449609106</v>
+        <v>13.56946782052093</v>
       </c>
       <c r="C9">
-        <v>16.33564425528932</v>
+        <v>8.24341856323384</v>
       </c>
       <c r="D9">
-        <v>3.030922814526092</v>
+        <v>2.776845906311285</v>
       </c>
       <c r="E9">
-        <v>7.10183795538863</v>
+        <v>5.664051790796886</v>
       </c>
       <c r="F9">
-        <v>42.51102009913778</v>
+        <v>50.27305866507723</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>35.40356497705518</v>
       </c>
       <c r="J9">
-        <v>5.967879541152697</v>
+        <v>6.433326480486532</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.07804971220694</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.738619914231196</v>
       </c>
       <c r="M9">
-        <v>16.18061446731339</v>
+        <v>10.47539010881214</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.47096082025881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.20521616408502</v>
+        <v>14.56919209893245</v>
       </c>
       <c r="C10">
-        <v>17.91845010587421</v>
+        <v>9.053377190960234</v>
       </c>
       <c r="D10">
-        <v>3.080164623375893</v>
+        <v>2.778785907354544</v>
       </c>
       <c r="E10">
-        <v>7.211057325422473</v>
+        <v>5.633644015321095</v>
       </c>
       <c r="F10">
-        <v>45.24263159988813</v>
+        <v>52.28252939643883</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>36.52592102101215</v>
       </c>
       <c r="J10">
-        <v>5.959503646777901</v>
+        <v>6.401158604803318</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.89312136274335</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.80633679013281</v>
       </c>
       <c r="M10">
-        <v>17.73759405329097</v>
+        <v>10.79016984385118</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.38521279283424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.22444801272199</v>
+        <v>15.01586368309474</v>
       </c>
       <c r="C11">
-        <v>18.60976559820712</v>
+        <v>9.406793043138283</v>
       </c>
       <c r="D11">
-        <v>3.103541587369482</v>
+        <v>2.778967397063495</v>
       </c>
       <c r="E11">
-        <v>7.264966256780209</v>
+        <v>5.621204463993569</v>
       </c>
       <c r="F11">
-        <v>46.4991034424439</v>
+        <v>53.20411475499836</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>37.04492082932416</v>
       </c>
       <c r="J11">
-        <v>5.959259726810597</v>
+        <v>6.387225433570697</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.25976138368998</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.840710062306463</v>
       </c>
       <c r="M11">
-        <v>18.41736617684527</v>
+        <v>10.93887652004974</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.27106639482631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.60461658186767</v>
+        <v>15.18378483852429</v>
       </c>
       <c r="C12">
-        <v>18.86763924044673</v>
+        <v>9.538538106678633</v>
       </c>
       <c r="D12">
-        <v>3.112550296148827</v>
+        <v>2.778933161917845</v>
       </c>
       <c r="E12">
-        <v>7.286018374920842</v>
+        <v>5.616698123104522</v>
       </c>
       <c r="F12">
-        <v>46.9770632437169</v>
+        <v>53.55412996651131</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>37.24268271465388</v>
       </c>
       <c r="J12">
-        <v>5.959717720879515</v>
+        <v>6.38204876873532</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.41593051646187</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.854255608368036</v>
       </c>
       <c r="M12">
-        <v>18.67088182602016</v>
+        <v>10.99597491351949</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>34.60883368489526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.522993077667</v>
+        <v>15.14767505828591</v>
       </c>
       <c r="C13">
-        <v>18.81227183157698</v>
+        <v>9.510255920860146</v>
       </c>
       <c r="D13">
-        <v>3.110602863653445</v>
+        <v>2.778945149922192</v>
       </c>
       <c r="E13">
-        <v>7.281455525366451</v>
+        <v>5.617659492275362</v>
       </c>
       <c r="F13">
-        <v>46.87402601459571</v>
+        <v>53.47870242001567</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>37.20003614531388</v>
       </c>
       <c r="J13">
-        <v>5.959593963803207</v>
+        <v>6.3831592490702</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.37653526833484</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.851314535215815</v>
       </c>
       <c r="M13">
-        <v>18.61645268917257</v>
+        <v>10.98364283832345</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.53598332249064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.25583900368548</v>
+        <v>15.02970341312646</v>
       </c>
       <c r="C14">
-        <v>18.63105810185257</v>
+        <v>9.417673127624999</v>
       </c>
       <c r="D14">
-        <v>3.104279501740862</v>
+        <v>2.778966656796107</v>
       </c>
       <c r="E14">
-        <v>7.266685253500636</v>
+        <v>5.6208296068851</v>
       </c>
       <c r="F14">
-        <v>46.53838079493809</v>
+        <v>53.23289018898434</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>37.0611660710281</v>
       </c>
       <c r="J14">
-        <v>5.959286146383115</v>
+        <v>6.386797558541571</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.27114358782325</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.841813763195366</v>
       </c>
       <c r="M14">
-        <v>18.438299983594</v>
+        <v>10.9435583016269</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.29880720454455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.0914543207046</v>
+        <v>14.95728177975286</v>
       </c>
       <c r="C15">
-        <v>18.51955678038638</v>
+        <v>9.360694251502991</v>
       </c>
       <c r="D15">
-        <v>3.100427155277541</v>
+        <v>2.778966355767974</v>
       </c>
       <c r="E15">
-        <v>7.25772208574289</v>
+        <v>5.622798117822512</v>
       </c>
       <c r="F15">
-        <v>46.33307681368446</v>
+        <v>53.08245661742502</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>36.97626474681655</v>
       </c>
       <c r="J15">
-        <v>5.959170457136446</v>
+        <v>6.389039053455314</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.21159631221412</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.836063664157519</v>
       </c>
       <c r="M15">
-        <v>18.32867482147738</v>
+        <v>10.91910765320313</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.15383707950582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.13777976671967</v>
+        <v>14.53983232612549</v>
       </c>
       <c r="C16">
-        <v>17.87271117981198</v>
+        <v>9.029984414543771</v>
       </c>
       <c r="D16">
-        <v>3.078657819080767</v>
+        <v>2.778759758774111</v>
       </c>
       <c r="E16">
-        <v>7.207621785048929</v>
+        <v>5.634485325629042</v>
       </c>
       <c r="F16">
-        <v>45.16080887459506</v>
+        <v>52.22244749877002</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>36.49217385138618</v>
       </c>
       <c r="J16">
-        <v>5.959594466820124</v>
+        <v>6.40208316222028</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.869072198094</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.804163571146361</v>
       </c>
       <c r="M16">
-        <v>17.69261231087068</v>
+        <v>10.78056182091799</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.32763406316461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.54209237045633</v>
+        <v>14.28161388752123</v>
       </c>
       <c r="C17">
-        <v>17.46868486240266</v>
+        <v>8.823305284063254</v>
       </c>
       <c r="D17">
-        <v>3.065563444748018</v>
+        <v>2.778451974910496</v>
       </c>
       <c r="E17">
-        <v>7.177989494616288</v>
+        <v>5.642014487671248</v>
       </c>
       <c r="F17">
-        <v>44.44529378778554</v>
+        <v>51.6967319606003</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>36.19736638619977</v>
       </c>
       <c r="J17">
-        <v>5.960793449898842</v>
+        <v>6.410263829634625</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.65783927017209</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.785519000646277</v>
       </c>
       <c r="M17">
-        <v>17.29524284777197</v>
+        <v>10.69697475088953</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.82472263163348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.19546756657422</v>
+        <v>14.13233193755075</v>
       </c>
       <c r="C18">
-        <v>17.23358291502906</v>
+        <v>8.703008433914011</v>
       </c>
       <c r="D18">
-        <v>3.058122690411211</v>
+        <v>2.778209098592716</v>
       </c>
       <c r="E18">
-        <v>7.161341405478244</v>
+        <v>5.646475924213655</v>
       </c>
       <c r="F18">
-        <v>44.03503535781963</v>
+        <v>51.39505789318424</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>36.02859314171514</v>
       </c>
       <c r="J18">
-        <v>5.961816280103438</v>
+        <v>6.415035109085286</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.53595571076224</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.775130025536039</v>
       </c>
       <c r="M18">
-        <v>17.06399017043151</v>
+        <v>10.64941668641839</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.53686463305074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.07741086660303</v>
+        <v>14.0816590619145</v>
       </c>
       <c r="C19">
-        <v>17.15350865680413</v>
+        <v>8.662031797230714</v>
       </c>
       <c r="D19">
-        <v>3.05561854075127</v>
+        <v>2.778115619160235</v>
       </c>
       <c r="E19">
-        <v>7.155771723385218</v>
+        <v>5.648008854265904</v>
       </c>
       <c r="F19">
-        <v>43.89634654090954</v>
+        <v>51.29303889716564</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>35.97158525225213</v>
       </c>
       <c r="J19">
-        <v>5.962218743125319</v>
+        <v>6.41666194768415</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.49462339262541</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.7716695408036</v>
       </c>
       <c r="M19">
-        <v>16.98522316996419</v>
+        <v>10.63340372352258</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.43963857421399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.60591642226744</v>
+        <v>14.3091810046353</v>
       </c>
       <c r="C20">
-        <v>17.51197383547207</v>
+        <v>8.845453111881509</v>
       </c>
       <c r="D20">
-        <v>3.066947863078158</v>
+        <v>2.778491569172991</v>
       </c>
       <c r="E20">
-        <v>7.181102747547401</v>
+        <v>5.641199425043973</v>
       </c>
       <c r="F20">
-        <v>44.5213275196549</v>
+        <v>51.75262286756263</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>36.22866708916383</v>
       </c>
       <c r="J20">
-        <v>5.96063107151763</v>
+        <v>6.409386163486894</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.680365986727</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.787468974196726</v>
       </c>
       <c r="M20">
-        <v>17.33782118298421</v>
+        <v>10.70581907723736</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.87811233246778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.33446333815549</v>
+        <v>15.06438807657596</v>
       </c>
       <c r="C21">
-        <v>18.68438930242397</v>
+        <v>9.444922900915683</v>
       </c>
       <c r="D21">
-        <v>3.106132438340945</v>
+        <v>2.778963151828446</v>
       </c>
       <c r="E21">
-        <v>7.27100606467766</v>
+        <v>5.619892890336979</v>
       </c>
       <c r="F21">
-        <v>46.63690736426191</v>
+        <v>53.30506340563164</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>37.10192206015154</v>
       </c>
       <c r="J21">
-        <v>5.959361303374788</v>
+        <v>6.385726207421981</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.29967496796538</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.844589877921011</v>
       </c>
       <c r="M21">
-        <v>18.4907318714051</v>
+        <v>10.95531079102947</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.36840720152126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.43056820545833</v>
+        <v>15.55081987529445</v>
       </c>
       <c r="C22">
-        <v>19.42794504198497</v>
+        <v>9.824594020998822</v>
       </c>
       <c r="D22">
-        <v>3.132663287187115</v>
+        <v>2.778670135023773</v>
       </c>
       <c r="E22">
-        <v>7.333498659157829</v>
+        <v>5.607160554275822</v>
       </c>
       <c r="F22">
-        <v>48.03232057339778</v>
+        <v>54.32568547602098</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>37.67981993796852</v>
       </c>
       <c r="J22">
-        <v>5.96175990728528</v>
+        <v>6.37084256506118</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.81414899576357</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.885013996471027</v>
       </c>
       <c r="M22">
-        <v>19.22160757814187</v>
+        <v>11.12295166873839</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.35601572936869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.8485250387033</v>
+        <v>15.29186721427809</v>
       </c>
       <c r="C23">
-        <v>19.03309275637767</v>
+        <v>9.623037867271847</v>
       </c>
       <c r="D23">
-        <v>3.118412739167599</v>
+        <v>2.778882279042023</v>
       </c>
       <c r="E23">
-        <v>7.299792303657496</v>
+        <v>5.613845473403798</v>
       </c>
       <c r="F23">
-        <v>47.28630859176243</v>
+        <v>53.78041574350314</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>37.37071951671182</v>
       </c>
       <c r="J23">
-        <v>5.960170801653902</v>
+        <v>6.378733624955594</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.53360809584431</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.863150412323617</v>
       </c>
       <c r="M23">
-        <v>18.83352281328365</v>
+        <v>11.03306025855382</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>34.82759419140714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.57707453552707</v>
+        <v>14.29672048758273</v>
       </c>
       <c r="C24">
-        <v>17.4924116961099</v>
+        <v>8.835444676637161</v>
       </c>
       <c r="D24">
-        <v>3.066321696543802</v>
+        <v>2.778473873794987</v>
       </c>
       <c r="E24">
-        <v>7.17969403989883</v>
+        <v>5.641567501439344</v>
       </c>
       <c r="F24">
-        <v>44.48694925229507</v>
+        <v>51.72735281938127</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>36.21451381368213</v>
       </c>
       <c r="J24">
-        <v>5.960703446732932</v>
+        <v>6.409782744134775</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.67018303350687</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.786586364360541</v>
       </c>
       <c r="M24">
-        <v>17.3185802527999</v>
+        <v>10.70181900793227</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.85397089545452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9730788508509</v>
+        <v>13.19466604980924</v>
       </c>
       <c r="C25">
-        <v>15.72599441314949</v>
+        <v>7.93133683949384</v>
       </c>
       <c r="D25">
-        <v>3.013566642653438</v>
+        <v>2.775523531849331</v>
       </c>
       <c r="E25">
-        <v>7.065176947779049</v>
+        <v>5.676461610702511</v>
       </c>
       <c r="F25">
-        <v>41.51680673321331</v>
+        <v>49.54011633353184</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>34.99769322229717</v>
       </c>
       <c r="J25">
-        <v>5.97389796526732</v>
+        <v>6.445800726879209</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.77470285418514</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.716744087285734</v>
       </c>
       <c r="M25">
-        <v>15.58075193001121</v>
+        <v>10.36441156997852</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.7787683068334</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.36210925954403</v>
+        <v>17.2740012113214</v>
       </c>
       <c r="C2">
-        <v>7.216105280973234</v>
+        <v>6.210456982042762</v>
       </c>
       <c r="D2">
-        <v>2.771266550080338</v>
+        <v>3.429573696358188</v>
       </c>
       <c r="E2">
-        <v>5.706328552048758</v>
+        <v>10.367439548968</v>
       </c>
       <c r="F2">
-        <v>47.95575489900871</v>
+        <v>58.69465117415611</v>
       </c>
       <c r="I2">
-        <v>34.12765037509642</v>
+        <v>42.75315948101491</v>
       </c>
       <c r="J2">
-        <v>6.474537253047707</v>
+        <v>10.42460092597664</v>
       </c>
       <c r="K2">
-        <v>11.10599294210876</v>
+        <v>15.86322915611633</v>
       </c>
       <c r="L2">
-        <v>6.675702223601848</v>
+        <v>11.72837058400546</v>
       </c>
       <c r="M2">
-        <v>10.1333537766013</v>
+        <v>17.62854016503063</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.78744468889894</v>
+        <v>17.24835937570876</v>
       </c>
       <c r="C3">
-        <v>6.705192438382919</v>
+        <v>6.094336099605056</v>
       </c>
       <c r="D3">
-        <v>2.767114660704949</v>
+        <v>3.441385103338878</v>
       </c>
       <c r="E3">
-        <v>5.72912477718564</v>
+        <v>10.38405863763133</v>
       </c>
       <c r="F3">
-        <v>46.90026588654261</v>
+        <v>58.51140703389704</v>
       </c>
       <c r="I3">
-        <v>33.55432624274046</v>
+        <v>42.65336659491722</v>
       </c>
       <c r="J3">
-        <v>6.495415251642224</v>
+        <v>10.43262268719585</v>
       </c>
       <c r="K3">
-        <v>10.64920622668732</v>
+        <v>15.84653044710395</v>
       </c>
       <c r="L3">
-        <v>6.654083407997614</v>
+        <v>11.75000770832539</v>
       </c>
       <c r="M3">
-        <v>9.987762356490249</v>
+        <v>17.65987514556383</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.43067729096128</v>
+        <v>17.23751755836731</v>
       </c>
       <c r="C4">
-        <v>6.417543122502193</v>
+        <v>6.023962917165284</v>
       </c>
       <c r="D4">
-        <v>2.763950544274183</v>
+        <v>3.449260142005552</v>
       </c>
       <c r="E4">
-        <v>5.744368275888845</v>
+        <v>10.39496118729553</v>
       </c>
       <c r="F4">
-        <v>46.26199240466813</v>
+        <v>58.40547193870997</v>
       </c>
       <c r="I4">
-        <v>33.21044862429184</v>
+        <v>42.59598130303159</v>
       </c>
       <c r="J4">
-        <v>6.508932715287538</v>
+        <v>10.43789362703449</v>
       </c>
       <c r="K4">
-        <v>10.36792922516087</v>
+        <v>15.84037225040109</v>
       </c>
       <c r="L4">
-        <v>6.64377321553074</v>
+        <v>11.76472790485008</v>
       </c>
       <c r="M4">
-        <v>9.903842724275648</v>
+        <v>17.68216696656818</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.28452529997353</v>
+        <v>17.23433732991699</v>
       </c>
       <c r="C5">
-        <v>6.297894009466519</v>
+        <v>5.995561236524317</v>
       </c>
       <c r="D5">
-        <v>2.762507905076061</v>
+        <v>3.452625987723473</v>
       </c>
       <c r="E5">
-        <v>5.750891732272111</v>
+        <v>10.39958015578731</v>
       </c>
       <c r="F5">
-        <v>46.00448874262641</v>
+        <v>58.36397429323817</v>
       </c>
       <c r="I5">
-        <v>33.072383608214</v>
+        <v>42.57358143914718</v>
       </c>
       <c r="J5">
-        <v>6.514617640499853</v>
+        <v>10.4401286812294</v>
       </c>
       <c r="K5">
-        <v>10.25327147050004</v>
+        <v>15.83889566593751</v>
       </c>
       <c r="L5">
-        <v>6.640303494519823</v>
+        <v>11.77108772213461</v>
       </c>
       <c r="M5">
-        <v>9.87102776866999</v>
+        <v>17.69201876254439</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.26021761482707</v>
+        <v>17.23388414955419</v>
       </c>
       <c r="C6">
-        <v>6.27788220446242</v>
+        <v>5.990863088341937</v>
       </c>
       <c r="D6">
-        <v>2.762259139145744</v>
+        <v>3.453194351241381</v>
       </c>
       <c r="E6">
-        <v>5.751993717354841</v>
+        <v>10.40035778165114</v>
       </c>
       <c r="F6">
-        <v>45.96189133367509</v>
+        <v>58.35718510085081</v>
       </c>
       <c r="I6">
-        <v>33.04958347669167</v>
+        <v>42.5699216609609</v>
       </c>
       <c r="J6">
-        <v>6.515572299655783</v>
+        <v>10.44050507737537</v>
       </c>
       <c r="K6">
-        <v>10.23423579625377</v>
+        <v>15.83871294526435</v>
       </c>
       <c r="L6">
-        <v>6.639771148997429</v>
+        <v>11.77216559296533</v>
       </c>
       <c r="M6">
-        <v>9.86566253911789</v>
+        <v>17.69370101781995</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.42870902389974</v>
+        <v>17.23746965055336</v>
       </c>
       <c r="C7">
-        <v>6.415939217506591</v>
+        <v>6.02357870773417</v>
       </c>
       <c r="D7">
-        <v>2.763931707045946</v>
+        <v>3.449304900349981</v>
       </c>
       <c r="E7">
-        <v>5.744454994101124</v>
+        <v>10.39502276668652</v>
       </c>
       <c r="F7">
-        <v>46.25850892204969</v>
+        <v>58.40490549582052</v>
       </c>
       <c r="I7">
-        <v>33.20857823267988</v>
+        <v>42.59567521273932</v>
       </c>
       <c r="J7">
-        <v>6.509008668620724</v>
+        <v>10.43792341679539</v>
       </c>
       <c r="K7">
-        <v>10.3663828166639</v>
+        <v>15.84034815072141</v>
       </c>
       <c r="L7">
-        <v>6.643723476708381</v>
+        <v>11.76481221250075</v>
       </c>
       <c r="M7">
-        <v>9.903394563909735</v>
+        <v>17.68229672272646</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.16490064115225</v>
+        <v>17.26414585971563</v>
       </c>
       <c r="C8">
-        <v>7.041245429636232</v>
+        <v>6.170252342280196</v>
       </c>
       <c r="D8">
-        <v>2.769963443664255</v>
+        <v>3.433517069753441</v>
       </c>
       <c r="E8">
-        <v>5.713928804450607</v>
+        <v>10.3730251553016</v>
       </c>
       <c r="F8">
-        <v>47.58986628389209</v>
+        <v>58.63011452670086</v>
       </c>
       <c r="I8">
-        <v>33.92828907519773</v>
+        <v>42.71794860964929</v>
       </c>
       <c r="J8">
-        <v>6.481591585552024</v>
+        <v>10.4272952392535</v>
       </c>
       <c r="K8">
-        <v>10.94875540841121</v>
+        <v>15.85662373624067</v>
       </c>
       <c r="L8">
-        <v>6.667624798467236</v>
+        <v>11.73553348978019</v>
       </c>
       <c r="M8">
-        <v>10.08202223332599</v>
+        <v>17.6387111963775</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.56946782052093</v>
+        <v>17.35507739569229</v>
       </c>
       <c r="C9">
-        <v>8.24341856323384</v>
+        <v>6.463332278339619</v>
       </c>
       <c r="D9">
-        <v>2.776845906311285</v>
+        <v>3.407494370419144</v>
       </c>
       <c r="E9">
-        <v>5.664051790796886</v>
+        <v>10.33540756791361</v>
       </c>
       <c r="F9">
-        <v>50.27305866507723</v>
+        <v>59.12310140208095</v>
       </c>
       <c r="I9">
-        <v>35.40356497705518</v>
+        <v>42.98822675007963</v>
       </c>
       <c r="J9">
-        <v>6.433326480486532</v>
+        <v>10.40918564381834</v>
       </c>
       <c r="K9">
-        <v>12.07804971220694</v>
+        <v>15.92085323074491</v>
       </c>
       <c r="L9">
-        <v>6.738619914231196</v>
+        <v>11.68948583016186</v>
       </c>
       <c r="M9">
-        <v>10.47539010881214</v>
+        <v>17.57744292963109</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.56919209893245</v>
+        <v>17.44498017893455</v>
       </c>
       <c r="C10">
-        <v>9.053377190960234</v>
+        <v>6.679497485950256</v>
       </c>
       <c r="D10">
-        <v>2.778785907354544</v>
+        <v>3.391379461507336</v>
       </c>
       <c r="E10">
-        <v>5.633644015321095</v>
+        <v>10.31110540338158</v>
       </c>
       <c r="F10">
-        <v>52.28252939643883</v>
+        <v>59.51540454765183</v>
       </c>
       <c r="I10">
-        <v>36.52592102101215</v>
+        <v>43.20489629359475</v>
       </c>
       <c r="J10">
-        <v>6.401158604803318</v>
+        <v>10.39753311512838</v>
       </c>
       <c r="K10">
-        <v>12.89312136274335</v>
+        <v>15.98745150769677</v>
       </c>
       <c r="L10">
-        <v>6.80633679013281</v>
+        <v>11.66256086518133</v>
       </c>
       <c r="M10">
-        <v>10.79016984385118</v>
+        <v>17.54716116971183</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.01586368309474</v>
+        <v>17.49077490609786</v>
       </c>
       <c r="C11">
-        <v>9.406793043138283</v>
+        <v>6.777515173490818</v>
       </c>
       <c r="D11">
-        <v>2.778967397063495</v>
+        <v>3.384699404859465</v>
       </c>
       <c r="E11">
-        <v>5.621204463993569</v>
+        <v>10.3007677707533</v>
       </c>
       <c r="F11">
-        <v>53.20411475499836</v>
+        <v>59.70012591172892</v>
       </c>
       <c r="I11">
-        <v>37.04492082932416</v>
+        <v>43.30727481102847</v>
       </c>
       <c r="J11">
-        <v>6.387225433570697</v>
+        <v>10.39258816344311</v>
       </c>
       <c r="K11">
-        <v>13.25976138368998</v>
+        <v>16.02188424569289</v>
       </c>
       <c r="L11">
-        <v>6.840710062306463</v>
+        <v>11.65180628615569</v>
       </c>
       <c r="M11">
-        <v>10.93887652004974</v>
+        <v>17.5365769525681</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.18378483852429</v>
+        <v>17.50880861860708</v>
       </c>
       <c r="C12">
-        <v>9.538538106678633</v>
+        <v>6.814546539023253</v>
       </c>
       <c r="D12">
-        <v>2.778933161917845</v>
+        <v>3.38226331422718</v>
       </c>
       <c r="E12">
-        <v>5.616698123104522</v>
+        <v>10.29695587723504</v>
       </c>
       <c r="F12">
-        <v>53.55412996651131</v>
+        <v>59.77094877830146</v>
       </c>
       <c r="I12">
-        <v>37.24268271465388</v>
+        <v>43.34657993512393</v>
       </c>
       <c r="J12">
-        <v>6.38204876873532</v>
+        <v>10.39076659405804</v>
       </c>
       <c r="K12">
-        <v>13.41593051646187</v>
+        <v>16.03550990821626</v>
       </c>
       <c r="L12">
-        <v>6.854255608368036</v>
+        <v>11.64794813338434</v>
       </c>
       <c r="M12">
-        <v>10.99597491351949</v>
+        <v>17.5330270142215</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.14767505828591</v>
+        <v>17.50489415074417</v>
       </c>
       <c r="C13">
-        <v>9.510255920860146</v>
+        <v>6.806575608018897</v>
       </c>
       <c r="D13">
-        <v>2.778945149922192</v>
+        <v>3.382783812509232</v>
       </c>
       <c r="E13">
-        <v>5.617659492275362</v>
+        <v>10.29777227410158</v>
       </c>
       <c r="F13">
-        <v>53.47870242001567</v>
+        <v>59.75565743404545</v>
       </c>
       <c r="I13">
-        <v>37.20003614531388</v>
+        <v>43.33809120436383</v>
       </c>
       <c r="J13">
-        <v>6.3831592490702</v>
+        <v>10.39115663748647</v>
       </c>
       <c r="K13">
-        <v>13.37653526833484</v>
+        <v>16.03254942098203</v>
       </c>
       <c r="L13">
-        <v>6.851314535215815</v>
+        <v>11.64876952825326</v>
       </c>
       <c r="M13">
-        <v>10.98364283832345</v>
+        <v>17.53377119819415</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.02970341312646</v>
+        <v>17.49224474945821</v>
       </c>
       <c r="C14">
-        <v>9.417673127624999</v>
+        <v>6.780563709441695</v>
       </c>
       <c r="D14">
-        <v>2.778966656796107</v>
+        <v>3.384497112692897</v>
       </c>
       <c r="E14">
-        <v>5.6208296068851</v>
+        <v>10.30045210734175</v>
       </c>
       <c r="F14">
-        <v>53.23289018898434</v>
+        <v>59.70593521884694</v>
       </c>
       <c r="I14">
-        <v>37.0611660710281</v>
+        <v>43.31049778346802</v>
       </c>
       <c r="J14">
-        <v>6.386797558541571</v>
+        <v>10.39243728129028</v>
       </c>
       <c r="K14">
-        <v>13.27114358782325</v>
+        <v>16.02299352761651</v>
       </c>
       <c r="L14">
-        <v>6.841813763195366</v>
+        <v>11.65148457974066</v>
       </c>
       <c r="M14">
-        <v>10.9435583016269</v>
+        <v>17.53627572158513</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.95728177975286</v>
+        <v>17.48458640183339</v>
       </c>
       <c r="C15">
-        <v>9.360694251502991</v>
+        <v>6.76461833502141</v>
       </c>
       <c r="D15">
-        <v>2.778966355767974</v>
+        <v>3.385558733194522</v>
       </c>
       <c r="E15">
-        <v>5.622798117822512</v>
+        <v>10.30210694988429</v>
       </c>
       <c r="F15">
-        <v>53.08245661742502</v>
+        <v>59.67559176853317</v>
       </c>
       <c r="I15">
-        <v>36.97626474681655</v>
+        <v>43.29366553324999</v>
       </c>
       <c r="J15">
-        <v>6.389039053455314</v>
+        <v>10.39322834553187</v>
       </c>
       <c r="K15">
-        <v>13.21159631221412</v>
+        <v>16.01721642165659</v>
       </c>
       <c r="L15">
-        <v>6.836063664157519</v>
+        <v>11.65317553198794</v>
       </c>
       <c r="M15">
-        <v>10.91910765320313</v>
+        <v>17.5378694431982</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.53983232612549</v>
+        <v>17.44208493367571</v>
       </c>
       <c r="C16">
-        <v>9.029984414543771</v>
+        <v>6.673081939490847</v>
       </c>
       <c r="D16">
-        <v>2.778759758774111</v>
+        <v>3.391829106863139</v>
       </c>
       <c r="E16">
-        <v>5.634485325629042</v>
+        <v>10.31179539324963</v>
       </c>
       <c r="F16">
-        <v>52.22244749877002</v>
+        <v>59.50345624164324</v>
       </c>
       <c r="I16">
-        <v>36.49217385138618</v>
+        <v>43.19828136973947</v>
       </c>
       <c r="J16">
-        <v>6.40208316222028</v>
+        <v>10.39786342326205</v>
       </c>
       <c r="K16">
-        <v>12.869072198094</v>
+        <v>15.98528381346666</v>
       </c>
       <c r="L16">
-        <v>6.804163571146361</v>
+        <v>11.66329372403586</v>
       </c>
       <c r="M16">
-        <v>10.78056182091799</v>
+        <v>17.54791702097937</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.28161388752123</v>
+        <v>17.41725782194991</v>
       </c>
       <c r="C17">
-        <v>8.823305284063254</v>
+        <v>6.616816928571979</v>
       </c>
       <c r="D17">
-        <v>2.778451974910496</v>
+        <v>3.39584238944382</v>
       </c>
       <c r="E17">
-        <v>5.642014487671248</v>
+        <v>10.31792240659434</v>
       </c>
       <c r="F17">
-        <v>51.6967319606003</v>
+        <v>59.39944111234757</v>
       </c>
       <c r="I17">
-        <v>36.19736638619977</v>
+        <v>43.14073497908485</v>
       </c>
       <c r="J17">
-        <v>6.410263829634625</v>
+        <v>10.40079789517526</v>
       </c>
       <c r="K17">
-        <v>12.65783927017209</v>
+        <v>15.96674819989594</v>
       </c>
       <c r="L17">
-        <v>6.785519000646277</v>
+        <v>11.66988319060026</v>
       </c>
       <c r="M17">
-        <v>10.69697475088953</v>
+        <v>17.55489767630933</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.13233193755075</v>
+        <v>17.40343968805036</v>
       </c>
       <c r="C18">
-        <v>8.703008433914011</v>
+        <v>6.584427242369404</v>
       </c>
       <c r="D18">
-        <v>2.778209098592716</v>
+        <v>3.398211974221171</v>
       </c>
       <c r="E18">
-        <v>5.646475924213655</v>
+        <v>10.32151406723761</v>
       </c>
       <c r="F18">
-        <v>51.39505789318424</v>
+        <v>59.34020536981552</v>
       </c>
       <c r="I18">
-        <v>36.02859314171514</v>
+        <v>43.1079956061597</v>
       </c>
       <c r="J18">
-        <v>6.415035109085286</v>
+        <v>10.40251923081239</v>
       </c>
       <c r="K18">
-        <v>12.53595571076224</v>
+        <v>15.95647692356771</v>
       </c>
       <c r="L18">
-        <v>6.775130025536039</v>
+        <v>11.67381390015908</v>
       </c>
       <c r="M18">
-        <v>10.64941668641839</v>
+        <v>17.55921318333104</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.0816590619145</v>
+        <v>17.39884076222018</v>
       </c>
       <c r="C19">
-        <v>8.662031797230714</v>
+        <v>6.573457177824467</v>
       </c>
       <c r="D19">
-        <v>2.778115619160235</v>
+        <v>3.39902479681084</v>
       </c>
       <c r="E19">
-        <v>5.648008854265904</v>
+        <v>10.32274175951841</v>
       </c>
       <c r="F19">
-        <v>51.29303889716564</v>
+        <v>59.32025148493773</v>
       </c>
       <c r="I19">
-        <v>35.97158525225213</v>
+        <v>43.09697276356898</v>
       </c>
       <c r="J19">
-        <v>6.41666194768415</v>
+        <v>10.40310780590628</v>
       </c>
       <c r="K19">
-        <v>12.49462339262541</v>
+        <v>15.9530664497516</v>
       </c>
       <c r="L19">
-        <v>6.7716695408036</v>
+        <v>11.6751689355304</v>
       </c>
       <c r="M19">
-        <v>10.63340372352258</v>
+        <v>17.56072595927922</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.3091810046353</v>
+        <v>17.41985300312335</v>
       </c>
       <c r="C20">
-        <v>8.845453111881509</v>
+        <v>6.622809582802623</v>
       </c>
       <c r="D20">
-        <v>2.778491569172991</v>
+        <v>3.39540882992884</v>
       </c>
       <c r="E20">
-        <v>5.641199425043973</v>
+        <v>10.31726318607156</v>
       </c>
       <c r="F20">
-        <v>51.75262286756263</v>
+        <v>59.41045272742949</v>
       </c>
       <c r="I20">
-        <v>36.22866708916383</v>
+        <v>43.14682373796516</v>
       </c>
       <c r="J20">
-        <v>6.409386163486894</v>
+        <v>10.40048204939107</v>
       </c>
       <c r="K20">
-        <v>12.680365986727</v>
+        <v>15.96868104894794</v>
       </c>
       <c r="L20">
-        <v>6.787468974196726</v>
+        <v>11.66916717971464</v>
       </c>
       <c r="M20">
-        <v>10.70581907723736</v>
+        <v>17.55412348678635</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.06438807657596</v>
+        <v>17.49594149893249</v>
       </c>
       <c r="C21">
-        <v>9.444922900915683</v>
+        <v>6.788206674344781</v>
       </c>
       <c r="D21">
-        <v>2.778963151828446</v>
+        <v>3.383991337831956</v>
       </c>
       <c r="E21">
-        <v>5.619892890336979</v>
+        <v>10.29966219040245</v>
       </c>
       <c r="F21">
-        <v>53.30506340563164</v>
+        <v>59.72051637314662</v>
       </c>
       <c r="I21">
-        <v>37.10192206015154</v>
+        <v>43.31858817496047</v>
       </c>
       <c r="J21">
-        <v>6.385726207421981</v>
+        <v>10.39205974320742</v>
       </c>
       <c r="K21">
-        <v>13.29967496796538</v>
+        <v>16.02578447020912</v>
       </c>
       <c r="L21">
-        <v>6.844589877921011</v>
+        <v>11.65068128874765</v>
       </c>
       <c r="M21">
-        <v>10.95531079102947</v>
+        <v>17.53552765740841</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.55081987529445</v>
+        <v>17.54969834477575</v>
       </c>
       <c r="C22">
-        <v>9.824594020998822</v>
+        <v>6.895785833737572</v>
       </c>
       <c r="D22">
-        <v>2.778670135023773</v>
+        <v>3.377074314416471</v>
       </c>
       <c r="E22">
-        <v>5.607160554275822</v>
+        <v>10.28875758978415</v>
       </c>
       <c r="F22">
-        <v>54.32568547602098</v>
+        <v>59.92823520880132</v>
       </c>
       <c r="I22">
-        <v>37.67981993796852</v>
+        <v>43.43396791521264</v>
       </c>
       <c r="J22">
-        <v>6.37084256506118</v>
+        <v>10.38685232054155</v>
       </c>
       <c r="K22">
-        <v>13.81414899576357</v>
+        <v>16.06652045058902</v>
       </c>
       <c r="L22">
-        <v>6.885013996471027</v>
+        <v>11.63984901017604</v>
       </c>
       <c r="M22">
-        <v>11.12295166873839</v>
+        <v>17.52604374948168</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.29186721427809</v>
+        <v>17.52064292510169</v>
       </c>
       <c r="C23">
-        <v>9.623037867271847</v>
+        <v>6.83842893706615</v>
       </c>
       <c r="D23">
-        <v>2.778882279042023</v>
+        <v>3.380716218158122</v>
       </c>
       <c r="E23">
-        <v>5.613845473403798</v>
+        <v>10.29452294610883</v>
       </c>
       <c r="F23">
-        <v>53.78041574350314</v>
+        <v>59.81691682760209</v>
       </c>
       <c r="I23">
-        <v>37.37071951671182</v>
+        <v>43.37210603590728</v>
       </c>
       <c r="J23">
-        <v>6.378733624955594</v>
+        <v>10.38960450421787</v>
       </c>
       <c r="K23">
-        <v>13.53360809584431</v>
+        <v>16.04446925705928</v>
       </c>
       <c r="L23">
-        <v>6.863150412323617</v>
+        <v>11.64551623279457</v>
       </c>
       <c r="M23">
-        <v>11.03306025855382</v>
+        <v>17.5308615272058</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.29672048758273</v>
+        <v>17.41867830255279</v>
       </c>
       <c r="C24">
-        <v>8.835444676637161</v>
+        <v>6.620100432135234</v>
       </c>
       <c r="D24">
-        <v>2.778473873794987</v>
+        <v>3.395604648155319</v>
       </c>
       <c r="E24">
-        <v>5.641567501439344</v>
+        <v>10.31756100422241</v>
       </c>
       <c r="F24">
-        <v>51.72735281938127</v>
+        <v>59.40547261734856</v>
       </c>
       <c r="I24">
-        <v>36.21451381368213</v>
+        <v>43.14406993496133</v>
       </c>
       <c r="J24">
-        <v>6.409782744134775</v>
+        <v>10.40062473651131</v>
       </c>
       <c r="K24">
-        <v>12.67018303350687</v>
+        <v>15.96780600771604</v>
       </c>
       <c r="L24">
-        <v>6.786586364360541</v>
+        <v>11.66949044483038</v>
       </c>
       <c r="M24">
-        <v>10.70181900793227</v>
+        <v>17.55447255634995</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.19466604980924</v>
+        <v>17.32638519142521</v>
       </c>
       <c r="C25">
-        <v>7.93133683949384</v>
+        <v>6.383723089846399</v>
       </c>
       <c r="D25">
-        <v>2.775523531849331</v>
+        <v>3.414006243166851</v>
       </c>
       <c r="E25">
-        <v>5.676461610702511</v>
+        <v>10.34499626285957</v>
       </c>
       <c r="F25">
-        <v>49.54011633353184</v>
+        <v>58.98435577580333</v>
       </c>
       <c r="I25">
-        <v>34.99769322229717</v>
+        <v>42.91189267283753</v>
       </c>
       <c r="J25">
-        <v>6.445800726879209</v>
+        <v>10.41379361887622</v>
       </c>
       <c r="K25">
-        <v>11.77470285418514</v>
+        <v>15.9000447374741</v>
       </c>
       <c r="L25">
-        <v>6.716744087285734</v>
+        <v>11.70072834054299</v>
       </c>
       <c r="M25">
-        <v>10.36441156997852</v>
+        <v>17.59142838742796</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.2740012113214</v>
+        <v>12.3621092595441</v>
       </c>
       <c r="C2">
-        <v>6.210456982042762</v>
+        <v>7.216105280973204</v>
       </c>
       <c r="D2">
-        <v>3.429573696358188</v>
+        <v>2.771266550080267</v>
       </c>
       <c r="E2">
-        <v>10.367439548968</v>
+        <v>5.706328552048761</v>
       </c>
       <c r="F2">
-        <v>58.69465117415611</v>
+        <v>47.95575489900892</v>
       </c>
       <c r="I2">
-        <v>42.75315948101491</v>
+        <v>34.1276503750966</v>
       </c>
       <c r="J2">
-        <v>10.42460092597664</v>
+        <v>6.474537253047676</v>
       </c>
       <c r="K2">
-        <v>15.86322915611633</v>
+        <v>11.1059929421088</v>
       </c>
       <c r="L2">
-        <v>11.72837058400546</v>
+        <v>6.675702223601801</v>
       </c>
       <c r="M2">
-        <v>17.62854016503063</v>
+        <v>10.13335377660136</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.24835937570876</v>
+        <v>11.78744468889894</v>
       </c>
       <c r="C3">
-        <v>6.094336099605056</v>
+        <v>6.705192438382859</v>
       </c>
       <c r="D3">
-        <v>3.441385103338878</v>
+        <v>2.767114660705021</v>
       </c>
       <c r="E3">
-        <v>10.38405863763133</v>
+        <v>5.729124777185509</v>
       </c>
       <c r="F3">
-        <v>58.51140703389704</v>
+        <v>46.90026588654261</v>
       </c>
       <c r="I3">
-        <v>42.65336659491722</v>
+        <v>33.55432624274049</v>
       </c>
       <c r="J3">
-        <v>10.43262268719585</v>
+        <v>6.495415251642195</v>
       </c>
       <c r="K3">
-        <v>15.84653044710395</v>
+        <v>10.64920622668729</v>
       </c>
       <c r="L3">
-        <v>11.75000770832539</v>
+        <v>6.654083407997572</v>
       </c>
       <c r="M3">
-        <v>17.65987514556383</v>
+        <v>9.987762356490181</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.23751755836731</v>
+        <v>11.43067729096127</v>
       </c>
       <c r="C4">
-        <v>6.023962917165284</v>
+        <v>6.417543122502174</v>
       </c>
       <c r="D4">
-        <v>3.449260142005552</v>
+        <v>2.763950544274139</v>
       </c>
       <c r="E4">
-        <v>10.39496118729553</v>
+        <v>5.74436827588897</v>
       </c>
       <c r="F4">
-        <v>58.40547193870997</v>
+        <v>46.26199240466823</v>
       </c>
       <c r="I4">
-        <v>42.59598130303159</v>
+        <v>33.21044862429194</v>
       </c>
       <c r="J4">
-        <v>10.43789362703449</v>
+        <v>6.508932715287577</v>
       </c>
       <c r="K4">
-        <v>15.84037225040109</v>
+        <v>10.36792922516086</v>
       </c>
       <c r="L4">
-        <v>11.76472790485008</v>
+        <v>6.643773215530765</v>
       </c>
       <c r="M4">
-        <v>17.68216696656818</v>
+        <v>9.903842724275687</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.23433732991699</v>
+        <v>11.28452529997356</v>
       </c>
       <c r="C5">
-        <v>5.995561236524317</v>
+        <v>6.297894009466501</v>
       </c>
       <c r="D5">
-        <v>3.452625987723473</v>
+        <v>2.762507905076245</v>
       </c>
       <c r="E5">
-        <v>10.39958015578731</v>
+        <v>5.750891732272115</v>
       </c>
       <c r="F5">
-        <v>58.36397429323817</v>
+        <v>46.00448874262652</v>
       </c>
       <c r="I5">
-        <v>42.57358143914718</v>
+        <v>33.07238360821414</v>
       </c>
       <c r="J5">
-        <v>10.4401286812294</v>
+        <v>6.514617640499952</v>
       </c>
       <c r="K5">
-        <v>15.83889566593751</v>
+        <v>10.25327147050006</v>
       </c>
       <c r="L5">
-        <v>11.77108772213461</v>
+        <v>6.640303494519872</v>
       </c>
       <c r="M5">
-        <v>17.69201876254439</v>
+        <v>9.871027768670036</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.23388414955419</v>
+        <v>11.26021761482706</v>
       </c>
       <c r="C6">
-        <v>5.990863088341937</v>
+        <v>6.27788220446244</v>
       </c>
       <c r="D6">
-        <v>3.453194351241381</v>
+        <v>2.762259139145813</v>
       </c>
       <c r="E6">
-        <v>10.40035778165114</v>
+        <v>5.751993717354711</v>
       </c>
       <c r="F6">
-        <v>58.35718510085081</v>
+        <v>45.96189133367481</v>
       </c>
       <c r="I6">
-        <v>42.5699216609609</v>
+        <v>33.04958347669154</v>
       </c>
       <c r="J6">
-        <v>10.44050507737537</v>
+        <v>6.515572299655813</v>
       </c>
       <c r="K6">
-        <v>15.83871294526435</v>
+        <v>10.23423579625374</v>
       </c>
       <c r="L6">
-        <v>11.77216559296533</v>
+        <v>6.639771148997364</v>
       </c>
       <c r="M6">
-        <v>17.69370101781995</v>
+        <v>9.865662539117833</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.23746965055336</v>
+        <v>11.42870902389965</v>
       </c>
       <c r="C7">
-        <v>6.02357870773417</v>
+        <v>6.415939217506526</v>
       </c>
       <c r="D7">
-        <v>3.449304900349981</v>
+        <v>2.76393170704577</v>
       </c>
       <c r="E7">
-        <v>10.39502276668652</v>
+        <v>5.744454994101064</v>
       </c>
       <c r="F7">
-        <v>58.40490549582052</v>
+        <v>46.25850892204944</v>
       </c>
       <c r="I7">
-        <v>42.59567521273932</v>
+        <v>33.20857823267969</v>
       </c>
       <c r="J7">
-        <v>10.43792341679539</v>
+        <v>6.509008668620599</v>
       </c>
       <c r="K7">
-        <v>15.84034815072141</v>
+        <v>10.3663828166638</v>
       </c>
       <c r="L7">
-        <v>11.76481221250075</v>
+        <v>6.643723476708295</v>
       </c>
       <c r="M7">
-        <v>17.68229672272646</v>
+        <v>9.903394563909638</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.26414585971563</v>
+        <v>12.16490064115223</v>
       </c>
       <c r="C8">
-        <v>6.170252342280196</v>
+        <v>7.041245429636247</v>
       </c>
       <c r="D8">
-        <v>3.433517069753441</v>
+        <v>2.769963443664329</v>
       </c>
       <c r="E8">
-        <v>10.3730251553016</v>
+        <v>5.713928804450549</v>
       </c>
       <c r="F8">
-        <v>58.63011452670086</v>
+        <v>47.58986628389203</v>
       </c>
       <c r="I8">
-        <v>42.71794860964929</v>
+        <v>33.92828907519771</v>
       </c>
       <c r="J8">
-        <v>10.4272952392535</v>
+        <v>6.48159158555206</v>
       </c>
       <c r="K8">
-        <v>15.85662373624067</v>
+        <v>10.94875540841121</v>
       </c>
       <c r="L8">
-        <v>11.73553348978019</v>
+        <v>6.667624798467171</v>
       </c>
       <c r="M8">
-        <v>17.6387111963775</v>
+        <v>10.08202223332597</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.35507739569229</v>
+        <v>13.56946782052092</v>
       </c>
       <c r="C9">
-        <v>6.463332278339619</v>
+        <v>8.243418563233714</v>
       </c>
       <c r="D9">
-        <v>3.407494370419144</v>
+        <v>2.776845906311489</v>
       </c>
       <c r="E9">
-        <v>10.33540756791361</v>
+        <v>5.664051790796763</v>
       </c>
       <c r="F9">
-        <v>59.12310140208095</v>
+        <v>50.27305866507727</v>
       </c>
       <c r="I9">
-        <v>42.98822675007963</v>
+        <v>35.4035649770552</v>
       </c>
       <c r="J9">
-        <v>10.40918564381834</v>
+        <v>6.433326480486514</v>
       </c>
       <c r="K9">
-        <v>15.92085323074491</v>
+        <v>12.07804971220694</v>
       </c>
       <c r="L9">
-        <v>11.68948583016186</v>
+        <v>6.738619914231152</v>
       </c>
       <c r="M9">
-        <v>17.57744292963109</v>
+        <v>10.47539010881207</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.44498017893455</v>
+        <v>14.56919209893243</v>
       </c>
       <c r="C10">
-        <v>6.679497485950256</v>
+        <v>9.05337719096025</v>
       </c>
       <c r="D10">
-        <v>3.391379461507336</v>
+        <v>2.778785907354314</v>
       </c>
       <c r="E10">
-        <v>10.31110540338158</v>
+        <v>5.633644015320969</v>
       </c>
       <c r="F10">
-        <v>59.51540454765183</v>
+        <v>52.2825293964388</v>
       </c>
       <c r="I10">
-        <v>43.20489629359475</v>
+        <v>36.52592102101215</v>
       </c>
       <c r="J10">
-        <v>10.39753311512838</v>
+        <v>6.4011586048032</v>
       </c>
       <c r="K10">
-        <v>15.98745150769677</v>
+        <v>12.89312136274333</v>
       </c>
       <c r="L10">
-        <v>11.66256086518133</v>
+        <v>6.806336790132756</v>
       </c>
       <c r="M10">
-        <v>17.54716116971183</v>
+        <v>10.79016984385111</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.49077490609786</v>
+        <v>15.01586368309474</v>
       </c>
       <c r="C11">
-        <v>6.777515173490818</v>
+        <v>9.40679304313827</v>
       </c>
       <c r="D11">
-        <v>3.384699404859465</v>
+        <v>2.778967397063377</v>
       </c>
       <c r="E11">
-        <v>10.3007677707533</v>
+        <v>5.62120446399364</v>
       </c>
       <c r="F11">
-        <v>59.70012591172892</v>
+        <v>53.20411475499826</v>
       </c>
       <c r="I11">
-        <v>43.30727481102847</v>
+        <v>37.04492082932406</v>
       </c>
       <c r="J11">
-        <v>10.39258816344311</v>
+        <v>6.387225433570702</v>
       </c>
       <c r="K11">
-        <v>16.02188424569289</v>
+        <v>13.25976138368995</v>
       </c>
       <c r="L11">
-        <v>11.65180628615569</v>
+        <v>6.84071006230652</v>
       </c>
       <c r="M11">
-        <v>17.5365769525681</v>
+        <v>10.9388765200497</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.50880861860708</v>
+        <v>15.1837848385243</v>
       </c>
       <c r="C12">
-        <v>6.814546539023253</v>
+        <v>9.53853810667877</v>
       </c>
       <c r="D12">
-        <v>3.38226331422718</v>
+        <v>2.778933161917904</v>
       </c>
       <c r="E12">
-        <v>10.29695587723504</v>
+        <v>5.616698123104644</v>
       </c>
       <c r="F12">
-        <v>59.77094877830146</v>
+        <v>53.55412996651142</v>
       </c>
       <c r="I12">
-        <v>43.34657993512393</v>
+        <v>37.242682714654</v>
       </c>
       <c r="J12">
-        <v>10.39076659405804</v>
+        <v>6.382048768735471</v>
       </c>
       <c r="K12">
-        <v>16.03550990821626</v>
+        <v>13.41593051646185</v>
       </c>
       <c r="L12">
-        <v>11.64794813338434</v>
+        <v>6.854255608368125</v>
       </c>
       <c r="M12">
-        <v>17.5330270142215</v>
+        <v>10.99597491351955</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.50489415074417</v>
+        <v>15.14767505828591</v>
       </c>
       <c r="C13">
-        <v>6.806575608018897</v>
+        <v>9.510255920860043</v>
       </c>
       <c r="D13">
-        <v>3.382783812509232</v>
+        <v>2.778945149922174</v>
       </c>
       <c r="E13">
-        <v>10.29777227410158</v>
+        <v>5.617659492275365</v>
       </c>
       <c r="F13">
-        <v>59.75565743404545</v>
+        <v>53.47870242001569</v>
       </c>
       <c r="I13">
-        <v>43.33809120436383</v>
+        <v>37.20003614531387</v>
       </c>
       <c r="J13">
-        <v>10.39115663748647</v>
+        <v>6.383159249070218</v>
       </c>
       <c r="K13">
-        <v>16.03254942098203</v>
+        <v>13.3765352683349</v>
       </c>
       <c r="L13">
-        <v>11.64876952825326</v>
+        <v>6.851314535215837</v>
       </c>
       <c r="M13">
-        <v>17.53377119819415</v>
+        <v>10.98364283832341</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.49224474945821</v>
+        <v>15.02970341312646</v>
       </c>
       <c r="C14">
-        <v>6.780563709441695</v>
+        <v>9.417673127625035</v>
       </c>
       <c r="D14">
-        <v>3.384497112692897</v>
+        <v>2.77896665679598</v>
       </c>
       <c r="E14">
-        <v>10.30045210734175</v>
+        <v>5.620829606885228</v>
       </c>
       <c r="F14">
-        <v>59.70593521884694</v>
+        <v>53.23289018898447</v>
       </c>
       <c r="I14">
-        <v>43.31049778346802</v>
+        <v>37.06116607102823</v>
       </c>
       <c r="J14">
-        <v>10.39243728129028</v>
+        <v>6.386797558541605</v>
       </c>
       <c r="K14">
-        <v>16.02299352761651</v>
+        <v>13.27114358782327</v>
       </c>
       <c r="L14">
-        <v>11.65148457974066</v>
+        <v>6.84181376319539</v>
       </c>
       <c r="M14">
-        <v>17.53627572158513</v>
+        <v>10.94355830162696</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.48458640183339</v>
+        <v>14.95728177975282</v>
       </c>
       <c r="C15">
-        <v>6.76461833502141</v>
+        <v>9.360694251503059</v>
       </c>
       <c r="D15">
-        <v>3.385558733194522</v>
+        <v>2.778966355767829</v>
       </c>
       <c r="E15">
-        <v>10.30210694988429</v>
+        <v>5.622798117822456</v>
       </c>
       <c r="F15">
-        <v>59.67559176853317</v>
+        <v>53.08245661742517</v>
       </c>
       <c r="I15">
-        <v>43.29366553324999</v>
+        <v>36.9762647468166</v>
       </c>
       <c r="J15">
-        <v>10.39322834553187</v>
+        <v>6.389039053455171</v>
       </c>
       <c r="K15">
-        <v>16.01721642165659</v>
+        <v>13.2115963122141</v>
       </c>
       <c r="L15">
-        <v>11.65317553198794</v>
+        <v>6.836063664157484</v>
       </c>
       <c r="M15">
-        <v>17.5378694431982</v>
+        <v>10.91910765320309</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.44208493367571</v>
+        <v>14.53983232612552</v>
       </c>
       <c r="C16">
-        <v>6.673081939490847</v>
+        <v>9.029984414543692</v>
       </c>
       <c r="D16">
-        <v>3.391829106863139</v>
+        <v>2.778759758774007</v>
       </c>
       <c r="E16">
-        <v>10.31179539324963</v>
+        <v>5.634485325629111</v>
       </c>
       <c r="F16">
-        <v>59.50345624164324</v>
+        <v>52.22244749877019</v>
       </c>
       <c r="I16">
-        <v>43.19828136973947</v>
+        <v>36.49217385138635</v>
       </c>
       <c r="J16">
-        <v>10.39786342326205</v>
+        <v>6.402083162220321</v>
       </c>
       <c r="K16">
-        <v>15.98528381346666</v>
+        <v>12.86907219809403</v>
       </c>
       <c r="L16">
-        <v>11.66329372403586</v>
+        <v>6.804163571146447</v>
       </c>
       <c r="M16">
-        <v>17.54791702097937</v>
+        <v>10.78056182091805</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.41725782194991</v>
+        <v>14.28161388752119</v>
       </c>
       <c r="C17">
-        <v>6.616816928571979</v>
+        <v>8.823305284063347</v>
       </c>
       <c r="D17">
-        <v>3.39584238944382</v>
+        <v>2.778451974910549</v>
       </c>
       <c r="E17">
-        <v>10.31792240659434</v>
+        <v>5.642014487671064</v>
       </c>
       <c r="F17">
-        <v>59.39944111234757</v>
+        <v>51.69673196060015</v>
       </c>
       <c r="I17">
-        <v>43.14073497908485</v>
+        <v>36.19736638619968</v>
       </c>
       <c r="J17">
-        <v>10.40079789517526</v>
+        <v>6.410263829634562</v>
       </c>
       <c r="K17">
-        <v>15.96674819989594</v>
+        <v>12.65783927017207</v>
       </c>
       <c r="L17">
-        <v>11.66988319060026</v>
+        <v>6.785519000646121</v>
       </c>
       <c r="M17">
-        <v>17.55489767630933</v>
+        <v>10.69697475088944</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.40343968805036</v>
+        <v>14.13233193755072</v>
       </c>
       <c r="C18">
-        <v>6.584427242369404</v>
+        <v>8.703008433914071</v>
       </c>
       <c r="D18">
-        <v>3.398211974221171</v>
+        <v>2.778209098592798</v>
       </c>
       <c r="E18">
-        <v>10.32151406723761</v>
+        <v>5.646475924213593</v>
       </c>
       <c r="F18">
-        <v>59.34020536981552</v>
+        <v>51.39505789318422</v>
       </c>
       <c r="I18">
-        <v>43.1079956061597</v>
+        <v>36.02859314171513</v>
       </c>
       <c r="J18">
-        <v>10.40251923081239</v>
+        <v>6.415035109085257</v>
       </c>
       <c r="K18">
-        <v>15.95647692356771</v>
+        <v>12.53595571076221</v>
       </c>
       <c r="L18">
-        <v>11.67381390015908</v>
+        <v>6.77513002553599</v>
       </c>
       <c r="M18">
-        <v>17.55921318333104</v>
+        <v>10.64941668641833</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.39884076222018</v>
+        <v>14.08165906191448</v>
       </c>
       <c r="C19">
-        <v>6.573457177824467</v>
+        <v>8.662031797230727</v>
       </c>
       <c r="D19">
-        <v>3.39902479681084</v>
+        <v>2.778115619160175</v>
       </c>
       <c r="E19">
-        <v>10.32274175951841</v>
+        <v>5.648008854265964</v>
       </c>
       <c r="F19">
-        <v>59.32025148493773</v>
+        <v>51.29303889716562</v>
       </c>
       <c r="I19">
-        <v>43.09697276356898</v>
+        <v>35.97158525225208</v>
       </c>
       <c r="J19">
-        <v>10.40310780590628</v>
+        <v>6.41666194768415</v>
       </c>
       <c r="K19">
-        <v>15.9530664497516</v>
+        <v>12.49462339262541</v>
       </c>
       <c r="L19">
-        <v>11.6751689355304</v>
+        <v>6.771669540803618</v>
       </c>
       <c r="M19">
-        <v>17.56072595927922</v>
+        <v>10.63340372352259</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.41985300312335</v>
+        <v>14.30918100463531</v>
       </c>
       <c r="C20">
-        <v>6.622809582802623</v>
+        <v>8.845453111881364</v>
       </c>
       <c r="D20">
-        <v>3.39540882992884</v>
+        <v>2.778491569173095</v>
       </c>
       <c r="E20">
-        <v>10.31726318607156</v>
+        <v>5.641199425043792</v>
       </c>
       <c r="F20">
-        <v>59.41045272742949</v>
+        <v>51.75262286756265</v>
       </c>
       <c r="I20">
-        <v>43.14682373796516</v>
+        <v>36.22866708916385</v>
       </c>
       <c r="J20">
-        <v>10.40048204939107</v>
+        <v>6.40938616348683</v>
       </c>
       <c r="K20">
-        <v>15.96868104894794</v>
+        <v>12.68036598672701</v>
       </c>
       <c r="L20">
-        <v>11.66916717971464</v>
+        <v>6.787468974196699</v>
       </c>
       <c r="M20">
-        <v>17.55412348678635</v>
+        <v>10.70581907723736</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.49594149893249</v>
+        <v>15.06438807657594</v>
       </c>
       <c r="C21">
-        <v>6.788206674344781</v>
+        <v>9.444922900915603</v>
       </c>
       <c r="D21">
-        <v>3.383991337831956</v>
+        <v>2.778963151828487</v>
       </c>
       <c r="E21">
-        <v>10.29966219040245</v>
+        <v>5.619892890336851</v>
       </c>
       <c r="F21">
-        <v>59.72051637314662</v>
+        <v>53.30506340563185</v>
       </c>
       <c r="I21">
-        <v>43.31858817496047</v>
+        <v>37.10192206015163</v>
       </c>
       <c r="J21">
-        <v>10.39205974320742</v>
+        <v>6.385726207421865</v>
       </c>
       <c r="K21">
-        <v>16.02578447020912</v>
+        <v>13.29967496796539</v>
       </c>
       <c r="L21">
-        <v>11.65068128874765</v>
+        <v>6.844589877921005</v>
       </c>
       <c r="M21">
-        <v>17.53552765740841</v>
+        <v>10.95531079102942</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.54969834477575</v>
+        <v>15.55081987529442</v>
       </c>
       <c r="C22">
-        <v>6.895785833737572</v>
+        <v>9.824594020998955</v>
       </c>
       <c r="D22">
-        <v>3.377074314416471</v>
+        <v>2.778670135023698</v>
       </c>
       <c r="E22">
-        <v>10.28875758978415</v>
+        <v>5.607160554275818</v>
       </c>
       <c r="F22">
-        <v>59.92823520880132</v>
+        <v>54.32568547602108</v>
       </c>
       <c r="I22">
-        <v>43.43396791521264</v>
+        <v>37.6798199379686</v>
       </c>
       <c r="J22">
-        <v>10.38685232054155</v>
+        <v>6.37084256506117</v>
       </c>
       <c r="K22">
-        <v>16.06652045058902</v>
+        <v>13.81414899576362</v>
       </c>
       <c r="L22">
-        <v>11.63984901017604</v>
+        <v>6.885013996470997</v>
       </c>
       <c r="M22">
-        <v>17.52604374948168</v>
+        <v>11.12295166873836</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.52064292510169</v>
+        <v>15.29186721427807</v>
       </c>
       <c r="C23">
-        <v>6.83842893706615</v>
+        <v>9.623037867271805</v>
       </c>
       <c r="D23">
-        <v>3.380716218158122</v>
+        <v>2.778882279042534</v>
       </c>
       <c r="E23">
-        <v>10.29452294610883</v>
+        <v>5.613845473403671</v>
       </c>
       <c r="F23">
-        <v>59.81691682760209</v>
+        <v>53.78041574350324</v>
       </c>
       <c r="I23">
-        <v>43.37210603590728</v>
+        <v>37.37071951671197</v>
       </c>
       <c r="J23">
-        <v>10.38960450421787</v>
+        <v>6.37873362495574</v>
       </c>
       <c r="K23">
-        <v>16.04446925705928</v>
+        <v>13.53360809584427</v>
       </c>
       <c r="L23">
-        <v>11.64551623279457</v>
+        <v>6.863150412323585</v>
       </c>
       <c r="M23">
-        <v>17.5308615272058</v>
+        <v>11.03306025855383</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.41867830255279</v>
+        <v>14.29672048758271</v>
       </c>
       <c r="C24">
-        <v>6.620100432135234</v>
+        <v>8.835444676637241</v>
       </c>
       <c r="D24">
-        <v>3.395604648155319</v>
+        <v>2.77847387379501</v>
       </c>
       <c r="E24">
-        <v>10.31756100422241</v>
+        <v>5.641567501439461</v>
       </c>
       <c r="F24">
-        <v>59.40547261734856</v>
+        <v>51.72735281938119</v>
       </c>
       <c r="I24">
-        <v>43.14406993496133</v>
+        <v>36.21451381368207</v>
       </c>
       <c r="J24">
-        <v>10.40062473651131</v>
+        <v>6.40978274413481</v>
       </c>
       <c r="K24">
-        <v>15.96780600771604</v>
+        <v>12.67018303350686</v>
       </c>
       <c r="L24">
-        <v>11.66949044483038</v>
+        <v>6.786586364360534</v>
       </c>
       <c r="M24">
-        <v>17.55447255634995</v>
+        <v>10.70181900793225</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.32638519142521</v>
+        <v>13.19466604980927</v>
       </c>
       <c r="C25">
-        <v>6.383723089846399</v>
+        <v>7.931336839493731</v>
       </c>
       <c r="D25">
-        <v>3.414006243166851</v>
+        <v>2.775523531849633</v>
       </c>
       <c r="E25">
-        <v>10.34499626285957</v>
+        <v>5.676461610702454</v>
       </c>
       <c r="F25">
-        <v>58.98435577580333</v>
+        <v>49.54011633353178</v>
       </c>
       <c r="I25">
-        <v>42.91189267283753</v>
+        <v>34.99769322229719</v>
       </c>
       <c r="J25">
-        <v>10.41379361887622</v>
+        <v>6.445800726879304</v>
       </c>
       <c r="K25">
-        <v>15.9000447374741</v>
+        <v>11.77470285418515</v>
       </c>
       <c r="L25">
-        <v>11.70072834054299</v>
+        <v>6.716744087285726</v>
       </c>
       <c r="M25">
-        <v>17.59142838742796</v>
+        <v>10.36441156997853</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.3621092595441</v>
+        <v>20.71191469398574</v>
       </c>
       <c r="C2">
-        <v>7.216105280973204</v>
+        <v>15.73562543840941</v>
       </c>
       <c r="D2">
-        <v>2.771266550080267</v>
+        <v>6.699297239984729</v>
       </c>
       <c r="E2">
-        <v>5.706328552048761</v>
+        <v>9.46023478178734</v>
       </c>
       <c r="F2">
-        <v>47.95575489900892</v>
+        <v>21.94193937594289</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1.856318753710426</v>
       </c>
       <c r="I2">
-        <v>34.1276503750966</v>
+        <v>2.478326610162686</v>
       </c>
       <c r="J2">
-        <v>6.474537253047676</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>11.1059929421088</v>
+        <v>13.18711267218864</v>
       </c>
       <c r="L2">
-        <v>6.675702223601801</v>
+        <v>6.370892326360083</v>
       </c>
       <c r="M2">
-        <v>10.13335377660136</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.66929651017108</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>15.44719503215772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.78744468889894</v>
+        <v>19.37088349417198</v>
       </c>
       <c r="C3">
-        <v>6.705192438382859</v>
+        <v>14.76212785023769</v>
       </c>
       <c r="D3">
-        <v>2.767114660705021</v>
+        <v>6.464098616059243</v>
       </c>
       <c r="E3">
-        <v>5.729124777185509</v>
+        <v>9.216114788938109</v>
       </c>
       <c r="F3">
-        <v>46.90026588654261</v>
+        <v>21.59427461939074</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2.083739188393369</v>
       </c>
       <c r="I3">
-        <v>33.55432624274049</v>
+        <v>2.645309731700359</v>
       </c>
       <c r="J3">
-        <v>6.495415251642195</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>10.64920622668729</v>
+        <v>13.40672811854102</v>
       </c>
       <c r="L3">
-        <v>6.654083407997572</v>
+        <v>6.30021211818076</v>
       </c>
       <c r="M3">
-        <v>9.987762356490181</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.79435964555779</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>15.36662472217885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.43067729096127</v>
+        <v>18.49740342040629</v>
       </c>
       <c r="C4">
-        <v>6.417543122502174</v>
+        <v>14.1351190012869</v>
       </c>
       <c r="D4">
-        <v>2.763950544274139</v>
+        <v>6.316375664384734</v>
       </c>
       <c r="E4">
-        <v>5.74436827588897</v>
+        <v>9.062427821377192</v>
       </c>
       <c r="F4">
-        <v>46.26199240466823</v>
+        <v>21.3875419037558</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2.228333057786474</v>
       </c>
       <c r="I4">
-        <v>33.21044862429194</v>
+        <v>2.752161483686875</v>
       </c>
       <c r="J4">
-        <v>6.508932715287577</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>10.36792922516086</v>
+        <v>13.54668121061706</v>
       </c>
       <c r="L4">
-        <v>6.643773215530765</v>
+        <v>6.255481615454447</v>
       </c>
       <c r="M4">
-        <v>9.903842724275687</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.23143741819079</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>15.32489941931062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.28452529997356</v>
+        <v>18.12796317721827</v>
       </c>
       <c r="C5">
-        <v>6.297894009466501</v>
+        <v>13.88484122367495</v>
       </c>
       <c r="D5">
-        <v>2.762507905076245</v>
+        <v>6.257213141407424</v>
       </c>
       <c r="E5">
-        <v>5.750891732272115</v>
+        <v>8.99889728578027</v>
       </c>
       <c r="F5">
-        <v>46.00448874262652</v>
+        <v>21.29546571040261</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.288719666283713</v>
       </c>
       <c r="I5">
-        <v>33.07238360821414</v>
+        <v>2.799783487901918</v>
       </c>
       <c r="J5">
-        <v>6.514617640499952</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>10.25327147050006</v>
+        <v>13.5994288034405</v>
       </c>
       <c r="L5">
-        <v>6.640303494519872</v>
+        <v>6.236446852399815</v>
       </c>
       <c r="M5">
-        <v>9.871027768670036</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.99847895475654</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>15.3024951749473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.26021761482706</v>
+        <v>18.06478638109846</v>
       </c>
       <c r="C6">
-        <v>6.27788220446244</v>
+        <v>13.85820393067646</v>
       </c>
       <c r="D6">
-        <v>2.762259139145813</v>
+        <v>6.249554328225059</v>
       </c>
       <c r="E6">
-        <v>5.751993717354711</v>
+        <v>8.988313488073612</v>
       </c>
       <c r="F6">
-        <v>45.96189133367481</v>
+        <v>21.26858480261901</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2.299064925253441</v>
       </c>
       <c r="I6">
-        <v>33.04958347669154</v>
+        <v>2.8116082397485</v>
       </c>
       <c r="J6">
-        <v>6.515572299655813</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>10.23423579625374</v>
+        <v>13.6015103583496</v>
       </c>
       <c r="L6">
-        <v>6.639771148997364</v>
+        <v>6.232690692662326</v>
       </c>
       <c r="M6">
-        <v>9.865662539117833</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.96279920506986</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15.28997180994094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.42870902389965</v>
+        <v>18.48962495710093</v>
       </c>
       <c r="C7">
-        <v>6.415939217506526</v>
+        <v>14.17278893631646</v>
       </c>
       <c r="D7">
-        <v>2.76393170704577</v>
+        <v>6.321541145674646</v>
       </c>
       <c r="E7">
-        <v>5.744454994101064</v>
+        <v>9.061640582041088</v>
       </c>
       <c r="F7">
-        <v>46.25850892204944</v>
+        <v>21.354541978514</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.229786456224682</v>
       </c>
       <c r="I7">
-        <v>33.20857823267969</v>
+        <v>2.76301167970718</v>
       </c>
       <c r="J7">
-        <v>6.509008668620599</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>10.3663828166638</v>
+        <v>13.52891760997413</v>
       </c>
       <c r="L7">
-        <v>6.643723476708295</v>
+        <v>6.253674001335471</v>
       </c>
       <c r="M7">
-        <v>9.903394563909638</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.23735146420988</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15.30030866042712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.16490064115223</v>
+        <v>20.25644020686747</v>
       </c>
       <c r="C8">
-        <v>7.041245429636247</v>
+        <v>15.45638782361617</v>
       </c>
       <c r="D8">
-        <v>2.769963443664329</v>
+        <v>6.626480153009749</v>
       </c>
       <c r="E8">
-        <v>5.713928804450549</v>
+        <v>9.377011131399444</v>
       </c>
       <c r="F8">
-        <v>47.58986628389203</v>
+        <v>21.77965559666658</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1.934505793480481</v>
       </c>
       <c r="I8">
-        <v>33.92828907519771</v>
+        <v>2.548273220396299</v>
       </c>
       <c r="J8">
-        <v>6.48159158555206</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.94875540841121</v>
+        <v>13.23721513891877</v>
       </c>
       <c r="L8">
-        <v>6.667624798467171</v>
+        <v>6.344823941785474</v>
       </c>
       <c r="M8">
-        <v>10.08202223332597</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.38411989630632</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15.386021993275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.56946782052092</v>
+        <v>23.3297000607641</v>
       </c>
       <c r="C9">
-        <v>8.243418563233714</v>
+        <v>17.67459148661172</v>
       </c>
       <c r="D9">
-        <v>2.776845906311489</v>
+        <v>7.185709397277155</v>
       </c>
       <c r="E9">
-        <v>5.664051790796763</v>
+        <v>9.963628461952965</v>
       </c>
       <c r="F9">
-        <v>50.27305866507727</v>
+        <v>22.71992424521494</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1.724222506886381</v>
       </c>
       <c r="I9">
-        <v>35.4035649770552</v>
+        <v>2.801318281648057</v>
       </c>
       <c r="J9">
-        <v>6.433326480486514</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>12.07804971220694</v>
+        <v>12.74075760236991</v>
       </c>
       <c r="L9">
-        <v>6.738619914231152</v>
+        <v>6.51568365424681</v>
       </c>
       <c r="M9">
-        <v>10.47539010881207</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.40988907645582</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.66081606798522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.56919209893243</v>
+        <v>25.37018868065124</v>
       </c>
       <c r="C10">
-        <v>9.05337719096025</v>
+        <v>19.16991553148835</v>
       </c>
       <c r="D10">
-        <v>2.778785907354314</v>
+        <v>7.513669401251049</v>
       </c>
       <c r="E10">
-        <v>5.633644015320969</v>
+        <v>10.22419673130348</v>
       </c>
       <c r="F10">
-        <v>52.2825293964388</v>
+        <v>23.23714647425892</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.080841104545655</v>
       </c>
       <c r="I10">
-        <v>36.52592102101215</v>
+        <v>3.07143782249718</v>
       </c>
       <c r="J10">
-        <v>6.4011586048032</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>12.89312136274333</v>
+        <v>12.33376939360084</v>
       </c>
       <c r="L10">
-        <v>6.806336790132756</v>
+        <v>6.580837204178726</v>
       </c>
       <c r="M10">
-        <v>10.79016984385111</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.67364131709592</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.78747020765735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.01586368309474</v>
+        <v>26.43896650451769</v>
       </c>
       <c r="C11">
-        <v>9.40679304313827</v>
+        <v>19.79895425586479</v>
       </c>
       <c r="D11">
-        <v>2.778967397063377</v>
+        <v>7.110291324397923</v>
       </c>
       <c r="E11">
-        <v>5.62120446399364</v>
+        <v>9.154577012092711</v>
       </c>
       <c r="F11">
-        <v>53.20411475499826</v>
+        <v>21.81352619393013</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.947692227463737</v>
       </c>
       <c r="I11">
-        <v>37.04492082932406</v>
+        <v>3.164307048919476</v>
       </c>
       <c r="J11">
-        <v>6.387225433570702</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>13.25976138368995</v>
+        <v>11.61508966330034</v>
       </c>
       <c r="L11">
-        <v>6.84071006230652</v>
+        <v>6.24032780310649</v>
       </c>
       <c r="M11">
-        <v>10.9388765200497</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.39966694149443</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.90402739324064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.1837848385243</v>
+        <v>26.93348123253061</v>
       </c>
       <c r="C12">
-        <v>9.53853810667877</v>
+        <v>19.97643335511836</v>
       </c>
       <c r="D12">
-        <v>2.778933161917904</v>
+        <v>6.696803149277117</v>
       </c>
       <c r="E12">
-        <v>5.616698123104644</v>
+        <v>8.369316302864375</v>
       </c>
       <c r="F12">
-        <v>53.55412996651142</v>
+        <v>20.5342586282912</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.195284423861838</v>
       </c>
       <c r="I12">
-        <v>37.242682714654</v>
+        <v>3.185042419663779</v>
       </c>
       <c r="J12">
-        <v>6.382048768735471</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>13.41593051646185</v>
+        <v>11.15542991289854</v>
       </c>
       <c r="L12">
-        <v>6.854255608368125</v>
+        <v>6.081193949795409</v>
       </c>
       <c r="M12">
-        <v>10.99597491351955</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.88632094084579</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>14.15964305915769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.14767505828591</v>
+        <v>27.0294285735613</v>
       </c>
       <c r="C13">
-        <v>9.510255920860043</v>
+        <v>19.87136967689748</v>
       </c>
       <c r="D13">
-        <v>2.778945149922174</v>
+        <v>6.252661069497839</v>
       </c>
       <c r="E13">
-        <v>5.617659492275365</v>
+        <v>7.798607810650585</v>
       </c>
       <c r="F13">
-        <v>53.47870242001569</v>
+        <v>19.23245771055006</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.510314444757476</v>
       </c>
       <c r="I13">
-        <v>37.20003614531387</v>
+        <v>3.155658476993323</v>
       </c>
       <c r="J13">
-        <v>6.383159249070218</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>13.3765352683349</v>
+        <v>10.84723068937472</v>
       </c>
       <c r="L13">
-        <v>6.851314535215837</v>
+        <v>6.056187843273275</v>
       </c>
       <c r="M13">
-        <v>10.98364283832341</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>17.15336734427531</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13.43867326465455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.02970341312646</v>
+        <v>26.91741803852699</v>
       </c>
       <c r="C14">
-        <v>9.417673127625035</v>
+        <v>19.6781706975874</v>
       </c>
       <c r="D14">
-        <v>2.77896665679598</v>
+        <v>5.929318025767074</v>
       </c>
       <c r="E14">
-        <v>5.620829606885228</v>
+        <v>7.554209146242035</v>
       </c>
       <c r="F14">
-        <v>53.23289018898447</v>
+        <v>18.30645193583579</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.454553277343648</v>
       </c>
       <c r="I14">
-        <v>37.06116607102823</v>
+        <v>3.113623393012771</v>
       </c>
       <c r="J14">
-        <v>6.386797558541605</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>13.27114358782327</v>
+        <v>10.70789270601479</v>
       </c>
       <c r="L14">
-        <v>6.84181376319539</v>
+        <v>6.118566287860611</v>
       </c>
       <c r="M14">
-        <v>10.94355830162696</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>16.53250147131658</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.94303782950687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.95728177975282</v>
+        <v>26.80330933984691</v>
       </c>
       <c r="C15">
-        <v>9.360694251503059</v>
+        <v>19.58252591914265</v>
       </c>
       <c r="D15">
-        <v>2.778966355767829</v>
+        <v>5.844972324612572</v>
       </c>
       <c r="E15">
-        <v>5.622798117822456</v>
+        <v>7.515559641805187</v>
       </c>
       <c r="F15">
-        <v>53.08245661742517</v>
+        <v>18.06889219168762</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.671340362994234</v>
       </c>
       <c r="I15">
-        <v>36.9762647468166</v>
+        <v>3.093689554928585</v>
       </c>
       <c r="J15">
-        <v>6.389039053455171</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>13.2115963122141</v>
+        <v>10.69884359133978</v>
       </c>
       <c r="L15">
-        <v>6.836063664157484</v>
+        <v>6.1418348169627</v>
       </c>
       <c r="M15">
-        <v>10.91910765320309</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>16.33603938480774</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.82158796340259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.53983232612552</v>
+        <v>25.96232661736507</v>
       </c>
       <c r="C16">
-        <v>9.029984414543692</v>
+        <v>19.00670492080194</v>
       </c>
       <c r="D16">
-        <v>2.778759758774007</v>
+        <v>5.781987534244895</v>
       </c>
       <c r="E16">
-        <v>5.634485325629111</v>
+        <v>7.500649611727699</v>
       </c>
       <c r="F16">
-        <v>52.22244749877019</v>
+        <v>18.06890343885237</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.45979198959927</v>
       </c>
       <c r="I16">
-        <v>36.49217385138635</v>
+        <v>2.986497653444906</v>
       </c>
       <c r="J16">
-        <v>6.402083162220321</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>12.86907219809403</v>
+        <v>10.93735430154723</v>
       </c>
       <c r="L16">
-        <v>6.804163571146447</v>
+        <v>6.110996286021303</v>
       </c>
       <c r="M16">
-        <v>10.78056182091805</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.91548196354953</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.8942478386704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.28161388752119</v>
+        <v>25.36392312254218</v>
       </c>
       <c r="C17">
-        <v>8.823305284063347</v>
+        <v>18.66468577024602</v>
       </c>
       <c r="D17">
-        <v>2.778451974910549</v>
+        <v>5.908288304435131</v>
       </c>
       <c r="E17">
-        <v>5.642014487671064</v>
+        <v>7.591763604533126</v>
       </c>
       <c r="F17">
-        <v>51.69673196060015</v>
+        <v>18.56309610770641</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.71368334961186</v>
       </c>
       <c r="I17">
-        <v>36.19736638619968</v>
+        <v>2.926696673779449</v>
       </c>
       <c r="J17">
-        <v>6.410263829634562</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>12.65783927017207</v>
+        <v>11.18631812963688</v>
       </c>
       <c r="L17">
-        <v>6.785519000646121</v>
+        <v>6.041824068210075</v>
       </c>
       <c r="M17">
-        <v>10.69697475088944</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>15.93438670927788</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.21181652537374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.13233193755072</v>
+        <v>24.9211419335373</v>
       </c>
       <c r="C18">
-        <v>8.703008433914071</v>
+        <v>18.46481928353318</v>
       </c>
       <c r="D18">
-        <v>2.778209098592798</v>
+        <v>6.215458372112305</v>
       </c>
       <c r="E18">
-        <v>5.646475924213593</v>
+        <v>7.93320262611443</v>
       </c>
       <c r="F18">
-        <v>51.39505789318422</v>
+        <v>19.56509925763781</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.437936897000673</v>
       </c>
       <c r="I18">
-        <v>36.02859314171513</v>
+        <v>2.898771708839453</v>
       </c>
       <c r="J18">
-        <v>6.415035109085257</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>12.53595571076221</v>
+        <v>11.50560306298932</v>
       </c>
       <c r="L18">
-        <v>6.77513002553599</v>
+        <v>6.006573922830798</v>
       </c>
       <c r="M18">
-        <v>10.64941668641833</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.3302560516479</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.79547034632534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.08165906191448</v>
+        <v>24.64046965467266</v>
       </c>
       <c r="C19">
-        <v>8.662031797230727</v>
+        <v>18.4597007704011</v>
       </c>
       <c r="D19">
-        <v>2.778115619160175</v>
+        <v>6.661204782680931</v>
       </c>
       <c r="E19">
-        <v>5.648008854265964</v>
+        <v>8.636117995100671</v>
       </c>
       <c r="F19">
-        <v>51.29303889716562</v>
+        <v>20.86148939702343</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.008392212550793</v>
       </c>
       <c r="I19">
-        <v>35.97158525225208</v>
+        <v>2.909423907969729</v>
       </c>
       <c r="J19">
-        <v>6.41666194768415</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>12.49462339262541</v>
+        <v>11.86909161235798</v>
       </c>
       <c r="L19">
-        <v>6.771669540803618</v>
+        <v>6.110677967501683</v>
       </c>
       <c r="M19">
-        <v>10.63340372352259</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.00305145368905</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14.51927911741336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.30918100463531</v>
+        <v>24.84486326639849</v>
       </c>
       <c r="C20">
-        <v>8.845453111881364</v>
+        <v>18.88641040553616</v>
       </c>
       <c r="D20">
-        <v>2.778491569173095</v>
+        <v>7.441690666756775</v>
       </c>
       <c r="E20">
-        <v>5.641199425043792</v>
+        <v>10.15040539446101</v>
       </c>
       <c r="F20">
-        <v>51.75262286756265</v>
+        <v>23.0007599318345</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1.985149575975969</v>
       </c>
       <c r="I20">
-        <v>36.22866708916385</v>
+        <v>3.011198513600715</v>
       </c>
       <c r="J20">
-        <v>6.40938616348683</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>12.68036598672701</v>
+        <v>12.37796290980876</v>
       </c>
       <c r="L20">
-        <v>6.787468974196699</v>
+        <v>6.557406077103459</v>
       </c>
       <c r="M20">
-        <v>10.70581907723736</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.36763524387287</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.67478725736977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.06438807657594</v>
+        <v>26.30229071388742</v>
       </c>
       <c r="C21">
-        <v>9.444922900915603</v>
+        <v>19.97478669674112</v>
       </c>
       <c r="D21">
-        <v>2.778963151828487</v>
+        <v>7.783594992143541</v>
       </c>
       <c r="E21">
-        <v>5.619892890336851</v>
+        <v>10.575587741639</v>
       </c>
       <c r="F21">
-        <v>53.30506340563185</v>
+        <v>23.71899126457795</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2.269574820333951</v>
       </c>
       <c r="I21">
-        <v>37.10192206015163</v>
+        <v>3.218949347696465</v>
       </c>
       <c r="J21">
-        <v>6.385726207421865</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>13.29967496796539</v>
+        <v>12.18280384048393</v>
       </c>
       <c r="L21">
-        <v>6.844589877921005</v>
+        <v>6.689329275324628</v>
       </c>
       <c r="M21">
-        <v>10.95531079102942</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.43962649948389</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.96667746391257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.55081987529442</v>
+        <v>27.22647566981146</v>
       </c>
       <c r="C22">
-        <v>9.824594020998955</v>
+        <v>20.6185630182333</v>
       </c>
       <c r="D22">
-        <v>2.778670135023698</v>
+        <v>7.962974695660503</v>
       </c>
       <c r="E22">
-        <v>5.607160554275818</v>
+        <v>10.77211508503334</v>
       </c>
       <c r="F22">
-        <v>54.32568547602108</v>
+        <v>24.13214926438261</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.446484444441018</v>
       </c>
       <c r="I22">
-        <v>37.6798199379686</v>
+        <v>3.347147198373285</v>
       </c>
       <c r="J22">
-        <v>6.37084256506117</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>13.81414899576362</v>
+        <v>12.05531603848167</v>
       </c>
       <c r="L22">
-        <v>6.885013996470997</v>
+        <v>6.748757808921364</v>
       </c>
       <c r="M22">
-        <v>11.12295166873836</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>20.05743549814939</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16.1407627577163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.29186721427807</v>
+        <v>26.73951425764439</v>
       </c>
       <c r="C23">
-        <v>9.623037867271805</v>
+        <v>20.24177131728472</v>
       </c>
       <c r="D23">
-        <v>2.778882279042534</v>
+        <v>7.861848431272094</v>
       </c>
       <c r="E23">
-        <v>5.613845473403671</v>
+        <v>10.66738606750236</v>
       </c>
       <c r="F23">
-        <v>53.78041574350324</v>
+        <v>23.9442580007087</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.352917362789709</v>
       </c>
       <c r="I23">
-        <v>37.37071951671197</v>
+        <v>3.275142153723461</v>
       </c>
       <c r="J23">
-        <v>6.37873362495574</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>13.53360809584427</v>
+        <v>12.14513161786992</v>
       </c>
       <c r="L23">
-        <v>6.863150412323585</v>
+        <v>6.718695267885874</v>
       </c>
       <c r="M23">
-        <v>11.03306025855383</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.7221277296317</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16.07369236843885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.29672048758271</v>
+        <v>24.80599267103023</v>
       </c>
       <c r="C24">
-        <v>8.835444676637241</v>
+        <v>18.81678231025118</v>
       </c>
       <c r="D24">
-        <v>2.77847387379501</v>
+        <v>7.478990166199946</v>
       </c>
       <c r="E24">
-        <v>5.641567501439461</v>
+        <v>10.26265980818535</v>
       </c>
       <c r="F24">
-        <v>51.72735281938119</v>
+        <v>23.19108318159897</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1.990694513666372</v>
       </c>
       <c r="I24">
-        <v>36.21451381368207</v>
+        <v>3.004312644575068</v>
       </c>
       <c r="J24">
-        <v>6.40978274413481</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>12.67018303350686</v>
+        <v>12.46347411723959</v>
       </c>
       <c r="L24">
-        <v>6.786586364360534</v>
+        <v>6.600255926264766</v>
       </c>
       <c r="M24">
-        <v>10.70181900793225</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.41466178886448</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.79592491107157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.19466604980927</v>
+        <v>22.53620535501934</v>
       </c>
       <c r="C25">
-        <v>7.931336839493731</v>
+        <v>17.1619107464105</v>
       </c>
       <c r="D25">
-        <v>2.775523531849633</v>
+        <v>7.047540662835988</v>
       </c>
       <c r="E25">
-        <v>5.676461610702454</v>
+        <v>9.808779002324492</v>
       </c>
       <c r="F25">
-        <v>49.54011633353178</v>
+        <v>22.4062726559416</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1.584165105503382</v>
       </c>
       <c r="I25">
-        <v>34.99769322229719</v>
+        <v>2.704382577976246</v>
       </c>
       <c r="J25">
-        <v>6.445800726879304</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>11.77470285418515</v>
+        <v>12.83654227311568</v>
       </c>
       <c r="L25">
-        <v>6.716744087285726</v>
+        <v>6.468015538027087</v>
       </c>
       <c r="M25">
-        <v>10.36441156997853</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.89847116131456</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15.5367914349877</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.71191469398574</v>
+        <v>20.73888242208314</v>
       </c>
       <c r="C2">
-        <v>15.73562543840941</v>
+        <v>16.0773049428024</v>
       </c>
       <c r="D2">
-        <v>6.699297239984729</v>
+        <v>6.813120026161994</v>
       </c>
       <c r="E2">
-        <v>9.46023478178734</v>
+        <v>9.529172691855511</v>
       </c>
       <c r="F2">
-        <v>21.94193937594289</v>
+        <v>21.4657970670043</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.856318753710426</v>
+        <v>1.804763509921312</v>
       </c>
       <c r="I2">
-        <v>2.478326610162686</v>
+        <v>2.565307484461552</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>13.18711267218864</v>
+        <v>12.7411590592622</v>
       </c>
       <c r="L2">
-        <v>6.370892326360083</v>
+        <v>11.11896355386361</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.705211534802918</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.380345651629167</v>
       </c>
       <c r="O2">
-        <v>15.66929651017108</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.44719503215772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.77578623037127</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.03778878518026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.37088349417198</v>
+        <v>19.41187192757848</v>
       </c>
       <c r="C3">
-        <v>14.76212785023769</v>
+        <v>15.00131515022958</v>
       </c>
       <c r="D3">
-        <v>6.464098616059243</v>
+        <v>6.571924387441774</v>
       </c>
       <c r="E3">
-        <v>9.216114788938109</v>
+        <v>9.294435532917424</v>
       </c>
       <c r="F3">
-        <v>21.59427461939074</v>
+        <v>21.17461288173881</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.083739188393369</v>
+        <v>2.023671774694465</v>
       </c>
       <c r="I3">
-        <v>2.645309731700359</v>
+        <v>2.531052347677108</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>13.40672811854102</v>
+        <v>12.97844015356262</v>
       </c>
       <c r="L3">
-        <v>6.30021211818076</v>
+        <v>11.32826741420898</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.883106812637204</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.316841963179829</v>
       </c>
       <c r="O3">
-        <v>14.79435964555779</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.36662472217885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.88255738633755</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.99752139433614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.49740342040629</v>
+        <v>18.54772015726211</v>
       </c>
       <c r="C4">
-        <v>14.1351190012869</v>
+        <v>14.30698186824367</v>
       </c>
       <c r="D4">
-        <v>6.316375664384734</v>
+        <v>6.420736929109519</v>
       </c>
       <c r="E4">
-        <v>9.062427821377192</v>
+        <v>9.14692230374045</v>
       </c>
       <c r="F4">
-        <v>21.3875419037558</v>
+        <v>21.00164782313735</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.228333057786474</v>
+        <v>2.16289439328319</v>
       </c>
       <c r="I4">
-        <v>2.752161483686875</v>
+        <v>2.627228225171905</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>13.54668121061706</v>
+        <v>13.12790570409908</v>
       </c>
       <c r="L4">
-        <v>6.255481615454447</v>
+        <v>11.46101463970524</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.011986973824193</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.276629962860905</v>
       </c>
       <c r="O4">
-        <v>14.23143741819079</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.32489941931062</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.30761924164695</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.97933656238412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.12796317721827</v>
+        <v>18.18230407505525</v>
       </c>
       <c r="C5">
-        <v>13.88484122367495</v>
+        <v>14.02783082713305</v>
       </c>
       <c r="D5">
-        <v>6.257213141407424</v>
+        <v>6.360138529409117</v>
       </c>
       <c r="E5">
-        <v>8.99889728578027</v>
+        <v>9.08600270262451</v>
       </c>
       <c r="F5">
-        <v>21.29546571040261</v>
+        <v>20.92348489622665</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.288719666283713</v>
+        <v>2.221050364100115</v>
       </c>
       <c r="I5">
-        <v>2.799783487901918</v>
+        <v>2.671031572647964</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>13.5994288034405</v>
+        <v>13.1846324705159</v>
       </c>
       <c r="L5">
-        <v>6.236446852399815</v>
+        <v>11.51105626605487</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.066833680299778</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.25948457789873</v>
       </c>
       <c r="O5">
-        <v>13.99847895475654</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.3024951749473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.06945957017976</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.96654633605574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.06478638109846</v>
+        <v>18.11983859592063</v>
       </c>
       <c r="C6">
-        <v>13.85820393067646</v>
+        <v>13.99593273964406</v>
       </c>
       <c r="D6">
-        <v>6.249554328225059</v>
+        <v>6.352137353975198</v>
       </c>
       <c r="E6">
-        <v>8.988313488073612</v>
+        <v>9.075847866753039</v>
       </c>
       <c r="F6">
-        <v>21.26858480261901</v>
+        <v>20.89940710654592</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.299064925253441</v>
+        <v>2.231018066103591</v>
       </c>
       <c r="I6">
-        <v>2.8116082397485</v>
+        <v>2.682955275658946</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>13.6015103583496</v>
+        <v>13.18786848647937</v>
       </c>
       <c r="L6">
-        <v>6.232690692662326</v>
+        <v>11.51319132282693</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.073275523401856</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.256068695083895</v>
       </c>
       <c r="O6">
-        <v>13.96279920506986</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.28997180994094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.0327647967319</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.95601059419304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.48962495710093</v>
+        <v>18.54007815948589</v>
       </c>
       <c r="C7">
-        <v>14.17278893631646</v>
+        <v>14.34317804024081</v>
       </c>
       <c r="D7">
-        <v>6.321541145674646</v>
+        <v>6.42559626659741</v>
       </c>
       <c r="E7">
-        <v>9.061640582041088</v>
+        <v>9.146141600050111</v>
       </c>
       <c r="F7">
-        <v>21.354541978514</v>
+        <v>20.97025052037291</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.229786456224682</v>
+        <v>2.164304078498472</v>
       </c>
       <c r="I7">
-        <v>2.76301167970718</v>
+        <v>2.639961457133289</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>13.52891760997413</v>
+        <v>13.1116916576695</v>
       </c>
       <c r="L7">
-        <v>6.253674001335471</v>
+        <v>11.44521606693415</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.004013941160421</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.274916105423456</v>
       </c>
       <c r="O7">
-        <v>14.23735146420988</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.30030866042712</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.31308851790647</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.95603037233472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.25644020686747</v>
+        <v>20.2882099385286</v>
       </c>
       <c r="C8">
-        <v>15.45638782361617</v>
+        <v>15.76220135307485</v>
       </c>
       <c r="D8">
-        <v>6.626480153009749</v>
+        <v>6.737851393105822</v>
       </c>
       <c r="E8">
-        <v>9.377011131399444</v>
+        <v>9.44906772141317</v>
       </c>
       <c r="F8">
-        <v>21.77965559666658</v>
+        <v>21.32508833596942</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.934505793480481</v>
+        <v>1.880023779427618</v>
       </c>
       <c r="I8">
-        <v>2.548273220396299</v>
+        <v>2.520323636714373</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>13.23721513891877</v>
+        <v>12.80001717560993</v>
       </c>
       <c r="L8">
-        <v>6.344823941785474</v>
+        <v>11.17087600001304</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.74813053438517</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.356820204665811</v>
       </c>
       <c r="O8">
-        <v>15.38411989630632</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.386021993275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.484003401456</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.99239339089626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.3297000607641</v>
+        <v>23.32977904035881</v>
       </c>
       <c r="C9">
-        <v>17.67459148661172</v>
+        <v>18.2134040076683</v>
       </c>
       <c r="D9">
-        <v>7.185709397277155</v>
+        <v>7.313208295142415</v>
       </c>
       <c r="E9">
-        <v>9.963628461952965</v>
+        <v>10.01456452032841</v>
       </c>
       <c r="F9">
-        <v>22.71992424521494</v>
+        <v>22.11918447213435</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.724222506886381</v>
+        <v>1.757360187054612</v>
       </c>
       <c r="I9">
-        <v>2.801318281648057</v>
+        <v>2.867672050707929</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>12.74075760236991</v>
+        <v>12.24935036189523</v>
       </c>
       <c r="L9">
-        <v>6.51568365424681</v>
+        <v>10.69143428691382</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.432140526183393</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.510329872463444</v>
       </c>
       <c r="O9">
-        <v>17.40988907645582</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.66081606798522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.5512643866256</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.1591292284021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.37018868065124</v>
+        <v>25.35035657533068</v>
       </c>
       <c r="C10">
-        <v>19.16991553148835</v>
+        <v>19.84502487090733</v>
       </c>
       <c r="D10">
-        <v>7.513669401251049</v>
+        <v>7.650700213204763</v>
       </c>
       <c r="E10">
-        <v>10.22419673130348</v>
+        <v>10.261434238483</v>
       </c>
       <c r="F10">
-        <v>23.23714647425892</v>
+        <v>22.54234959168297</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.080841104545655</v>
+        <v>2.099963192866777</v>
       </c>
       <c r="I10">
-        <v>3.07143782249718</v>
+        <v>3.111860825398039</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>12.33376939360084</v>
+        <v>11.80837071604261</v>
       </c>
       <c r="L10">
-        <v>6.580837204178726</v>
+        <v>10.32281735079414</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.260713720256311</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.564752708705909</v>
       </c>
       <c r="O10">
-        <v>18.67364131709592</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.78747020765735</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.83802049981555</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.21408615242491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.43896650451769</v>
+        <v>26.41848000616589</v>
       </c>
       <c r="C11">
-        <v>19.79895425586479</v>
+        <v>20.41175194207626</v>
       </c>
       <c r="D11">
-        <v>7.110291324397923</v>
+        <v>7.229204599790884</v>
       </c>
       <c r="E11">
-        <v>9.154577012092711</v>
+        <v>9.184340001102056</v>
       </c>
       <c r="F11">
-        <v>21.81352619393013</v>
+        <v>21.19918912399987</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.947692227463737</v>
+        <v>2.958262107164448</v>
       </c>
       <c r="I11">
-        <v>3.164307048919476</v>
+        <v>3.198046653070211</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>11.61508966330034</v>
+        <v>11.19104671026808</v>
       </c>
       <c r="L11">
-        <v>6.24032780310649</v>
+        <v>9.910422815667046</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.788440856173729</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.231428767247029</v>
       </c>
       <c r="O11">
-        <v>18.39966694149443</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.90402739324064</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.54644293454032</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.39951983642934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.93348123253061</v>
+        <v>26.91632772052574</v>
       </c>
       <c r="C12">
-        <v>19.97643335511836</v>
+        <v>20.50918130872566</v>
       </c>
       <c r="D12">
-        <v>6.696803149277117</v>
+        <v>6.798542404162646</v>
       </c>
       <c r="E12">
-        <v>8.369316302864375</v>
+        <v>8.394993290318991</v>
       </c>
       <c r="F12">
-        <v>20.5342586282912</v>
+        <v>20.0062195183168</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.195284423861838</v>
+        <v>4.202141809843894</v>
       </c>
       <c r="I12">
-        <v>3.185042419663779</v>
+        <v>3.21656031137648</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>11.15542991289854</v>
+        <v>10.816844315615</v>
       </c>
       <c r="L12">
-        <v>6.081193949795409</v>
+        <v>9.688763891149655</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.449387880077547</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.079512834671064</v>
       </c>
       <c r="O12">
-        <v>17.88632094084579</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.15964305915769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.0138382457867</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.72698100583637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.0294285735613</v>
+        <v>27.01905467278475</v>
       </c>
       <c r="C13">
-        <v>19.87136967689748</v>
+        <v>20.30169502495552</v>
       </c>
       <c r="D13">
-        <v>6.252661069497839</v>
+        <v>6.336766366895008</v>
       </c>
       <c r="E13">
-        <v>7.798607810650585</v>
+        <v>7.823372415685892</v>
       </c>
       <c r="F13">
-        <v>19.23245771055006</v>
+        <v>18.80316424279519</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.510314444757476</v>
+        <v>5.515926491287333</v>
       </c>
       <c r="I13">
-        <v>3.155658476993323</v>
+        <v>3.189738007679802</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>10.84723068937472</v>
+        <v>10.58570479087263</v>
       </c>
       <c r="L13">
-        <v>6.056187843273275</v>
+        <v>9.565943301922953</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.18693255104406</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.061401734122721</v>
       </c>
       <c r="O13">
-        <v>17.15336734427531</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.43867326465455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.25813598079128</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.08638164934394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.91741803852699</v>
+        <v>26.91341476568316</v>
       </c>
       <c r="C14">
-        <v>19.6781706975874</v>
+        <v>20.02478907685434</v>
       </c>
       <c r="D14">
-        <v>5.929318025767074</v>
+        <v>6.001104409524576</v>
       </c>
       <c r="E14">
-        <v>7.554209146242035</v>
+        <v>7.580082130069725</v>
       </c>
       <c r="F14">
-        <v>18.30645193583579</v>
+        <v>17.95160389069007</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.454553277343648</v>
+        <v>6.459851455972529</v>
       </c>
       <c r="I14">
-        <v>3.113623393012771</v>
+        <v>3.151941946974508</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>10.70789270601479</v>
+        <v>10.49284233710619</v>
       </c>
       <c r="L14">
-        <v>6.118566287860611</v>
+        <v>9.519649348783517</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.051756919640909</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.127770095903171</v>
       </c>
       <c r="O14">
-        <v>16.53250147131658</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.94303782950687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.61932113566156</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.65020415190393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.80330933984691</v>
+        <v>26.80165106067471</v>
       </c>
       <c r="C15">
-        <v>19.58252591914265</v>
+        <v>19.90325522738311</v>
       </c>
       <c r="D15">
-        <v>5.844972324612572</v>
+        <v>5.913705022753811</v>
       </c>
       <c r="E15">
-        <v>7.515559641805187</v>
+        <v>7.54255240094952</v>
       </c>
       <c r="F15">
-        <v>18.06889219168762</v>
+        <v>17.73495680177153</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.671340362994234</v>
+        <v>6.674470003299425</v>
       </c>
       <c r="I15">
-        <v>3.093689554928585</v>
+        <v>3.134570409678054</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>10.69884359133978</v>
+        <v>10.4936946727901</v>
       </c>
       <c r="L15">
-        <v>6.1418348169627</v>
+        <v>9.520452646265417</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.035352175095889</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.152039837701501</v>
       </c>
       <c r="O15">
-        <v>16.33603938480774</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.82158796340259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.41755399788596</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.54510341789344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.96232661736507</v>
+        <v>25.96787693215312</v>
       </c>
       <c r="C16">
-        <v>19.00670492080194</v>
+        <v>19.28373627963789</v>
       </c>
       <c r="D16">
-        <v>5.781987534244895</v>
+        <v>5.850645564897915</v>
       </c>
       <c r="E16">
-        <v>7.500649611727699</v>
+        <v>7.535664391257968</v>
       </c>
       <c r="F16">
-        <v>18.06890343885237</v>
+        <v>17.75608643560606</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.45979198959927</v>
+        <v>6.454473511330919</v>
       </c>
       <c r="I16">
-        <v>2.986497653444906</v>
+        <v>3.038553623367732</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>10.93735430154723</v>
+        <v>10.72183205268698</v>
       </c>
       <c r="L16">
-        <v>6.110996286021303</v>
+        <v>9.642250648376667</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.200431978703735</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.123414728057855</v>
       </c>
       <c r="O16">
-        <v>15.91548196354953</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.8942478386704</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>15.99015928132204</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.63166452810344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.36392312254218</v>
+        <v>25.37158897038823</v>
       </c>
       <c r="C17">
-        <v>18.66468577024602</v>
+        <v>18.95439403515667</v>
       </c>
       <c r="D17">
-        <v>5.908288304435131</v>
+        <v>5.983141198520995</v>
       </c>
       <c r="E17">
-        <v>7.591763604533126</v>
+        <v>7.632086691860322</v>
       </c>
       <c r="F17">
-        <v>18.56309610770641</v>
+        <v>18.22746849480714</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.71368334961186</v>
+        <v>5.706505708664069</v>
       </c>
       <c r="I17">
-        <v>2.926696673779449</v>
+        <v>2.985173753196595</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>11.18631812963688</v>
+        <v>10.94204782037148</v>
       </c>
       <c r="L17">
-        <v>6.041824068210075</v>
+        <v>9.770859553333324</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.38296376649537</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.054386025129835</v>
       </c>
       <c r="O17">
-        <v>15.93438670927788</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.21181652537374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.01375663169613</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.92912732704085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.9211419335373</v>
+        <v>24.92658965998201</v>
       </c>
       <c r="C18">
-        <v>18.46481928353318</v>
+        <v>18.81886480026112</v>
       </c>
       <c r="D18">
-        <v>6.215458372112305</v>
+        <v>6.30296213406779</v>
       </c>
       <c r="E18">
-        <v>7.93320262611443</v>
+        <v>7.976604745600456</v>
       </c>
       <c r="F18">
-        <v>19.56509925763781</v>
+        <v>19.16468551676472</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.437936897000673</v>
+        <v>4.428193423917484</v>
       </c>
       <c r="I18">
-        <v>2.898771708839453</v>
+        <v>2.958973822584819</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>11.50560306298932</v>
+        <v>11.20807538251265</v>
       </c>
       <c r="L18">
-        <v>6.006573922830798</v>
+        <v>9.942726336788184</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.6126110127099</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.016361091033897</v>
       </c>
       <c r="O18">
-        <v>16.3302560516479</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.79547034632534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.4252261904226</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.45978383901938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.64046965467266</v>
+        <v>24.64045204196831</v>
       </c>
       <c r="C19">
-        <v>18.4597007704011</v>
+        <v>18.91127611887379</v>
       </c>
       <c r="D19">
-        <v>6.661204782680931</v>
+        <v>6.765731763109185</v>
       </c>
       <c r="E19">
-        <v>8.636117995100671</v>
+        <v>8.68028005161252</v>
       </c>
       <c r="F19">
-        <v>20.86148939702343</v>
+        <v>20.36812259596869</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.008392212550793</v>
+        <v>3.024656389392897</v>
       </c>
       <c r="I19">
-        <v>2.909423907969729</v>
+        <v>2.969381092772394</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>11.86909161235798</v>
+        <v>11.49798431907029</v>
       </c>
       <c r="L19">
-        <v>6.110677967501683</v>
+        <v>10.13975157202429</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.867785040008266</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.113869242762417</v>
       </c>
       <c r="O19">
-        <v>17.00305145368905</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.51927911741336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.1203991485248</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.10833785038116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.84486326639849</v>
+        <v>24.83041462387332</v>
       </c>
       <c r="C20">
-        <v>18.88641040553616</v>
+        <v>19.52306060494978</v>
       </c>
       <c r="D20">
-        <v>7.441690666756775</v>
+        <v>7.575441359803045</v>
       </c>
       <c r="E20">
-        <v>10.15040539446101</v>
+        <v>10.19111299942113</v>
       </c>
       <c r="F20">
-        <v>23.0007599318345</v>
+        <v>22.33579956025035</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.985149575975969</v>
+        <v>2.007983407522502</v>
       </c>
       <c r="I20">
-        <v>3.011198513600715</v>
+        <v>3.061461050571592</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>12.37796290980876</v>
+        <v>11.86998803607223</v>
       </c>
       <c r="L20">
-        <v>6.557406077103459</v>
+        <v>10.3824841571394</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.250575057533977</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.544375182912357</v>
       </c>
       <c r="O20">
-        <v>18.36763524387287</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.67478725736977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.52514099852592</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.12504063315762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.30229071388742</v>
+        <v>26.27166575937997</v>
       </c>
       <c r="C21">
-        <v>19.97478669674112</v>
+        <v>20.7319034791817</v>
       </c>
       <c r="D21">
-        <v>7.783594992143541</v>
+        <v>7.928771129843075</v>
       </c>
       <c r="E21">
-        <v>10.575587741639</v>
+        <v>10.60647140351377</v>
       </c>
       <c r="F21">
-        <v>23.71899126457795</v>
+        <v>22.95921688830519</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.269574820333951</v>
+        <v>2.281548694633417</v>
       </c>
       <c r="I21">
-        <v>3.218949347696465</v>
+        <v>3.248559218248774</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>12.18280384048393</v>
+        <v>11.62391750632847</v>
       </c>
       <c r="L21">
-        <v>6.689329275324628</v>
+        <v>10.16585467610686</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.233026212670607</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.666024921423556</v>
       </c>
       <c r="O21">
-        <v>19.43962649948389</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.96667746391257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.61852034479378</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.34197932892012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.22647566981146</v>
+        <v>27.18594048482804</v>
       </c>
       <c r="C22">
-        <v>20.6185630182333</v>
+        <v>21.44494699536273</v>
       </c>
       <c r="D22">
-        <v>7.962974695660503</v>
+        <v>8.114518455934439</v>
       </c>
       <c r="E22">
-        <v>10.77211508503334</v>
+        <v>10.79689135654874</v>
       </c>
       <c r="F22">
-        <v>24.13214926438261</v>
+        <v>23.31610184383868</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.446484444441018</v>
+        <v>2.451469925508825</v>
       </c>
       <c r="I22">
-        <v>3.347147198373285</v>
+        <v>3.362468123880582</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>12.05531603848167</v>
+        <v>11.46425758894023</v>
       </c>
       <c r="L22">
-        <v>6.748757808921364</v>
+        <v>10.02352564269291</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.244722010783303</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.7194695171678</v>
       </c>
       <c r="O22">
-        <v>20.05743549814939</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.1407627577163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.24823595300308</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.47084869124854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.73951425764439</v>
+        <v>26.70415392394318</v>
       </c>
       <c r="C23">
-        <v>20.24177131728472</v>
+        <v>21.0327273526953</v>
       </c>
       <c r="D23">
-        <v>7.861848431272094</v>
+        <v>8.010236637164567</v>
       </c>
       <c r="E23">
-        <v>10.66738606750236</v>
+        <v>10.69540533590864</v>
       </c>
       <c r="F23">
-        <v>23.9442580007087</v>
+        <v>23.15655051233033</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.352917362789709</v>
+        <v>2.361602822093662</v>
       </c>
       <c r="I23">
-        <v>3.275142153723461</v>
+        <v>3.296859999158851</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>12.14513161786992</v>
+        <v>11.56842876643988</v>
       </c>
       <c r="L23">
-        <v>6.718695267885874</v>
+        <v>10.11059444511108</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.255198094652025</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.692507388479567</v>
       </c>
       <c r="O23">
-        <v>19.7221277296317</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.07369236843885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.90699037238309</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.42643214541247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.80599267103023</v>
+        <v>24.79093274746522</v>
       </c>
       <c r="C24">
-        <v>18.81678231025118</v>
+        <v>19.46441642706876</v>
       </c>
       <c r="D24">
-        <v>7.478990166199946</v>
+        <v>7.614962398815766</v>
       </c>
       <c r="E24">
-        <v>10.26265980818535</v>
+        <v>10.30358269723147</v>
       </c>
       <c r="F24">
-        <v>23.19108318159897</v>
+        <v>22.51389389528335</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.990694513666372</v>
+        <v>2.013554824300706</v>
       </c>
       <c r="I24">
-        <v>3.004312644575068</v>
+        <v>3.052623703445423</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>12.46347411723959</v>
+        <v>11.94157058943768</v>
       </c>
       <c r="L24">
-        <v>6.600255926264766</v>
+        <v>10.4310233227352</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.31263490014995</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.586153609460125</v>
       </c>
       <c r="O24">
-        <v>18.41466178886448</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.79592491107157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.57487523747279</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.23583520524446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.53620535501934</v>
+        <v>22.5445345917975</v>
       </c>
       <c r="C25">
-        <v>17.1619107464105</v>
+        <v>17.63940564549832</v>
       </c>
       <c r="D25">
-        <v>7.047540662835988</v>
+        <v>7.170166658973829</v>
       </c>
       <c r="E25">
-        <v>9.808779002324492</v>
+        <v>9.865055139100075</v>
       </c>
       <c r="F25">
-        <v>22.4062726559416</v>
+        <v>21.84812888545696</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.584165105503382</v>
+        <v>1.622651470305565</v>
       </c>
       <c r="I25">
-        <v>2.704382577976246</v>
+        <v>2.782591794568209</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>12.83654227311568</v>
+        <v>12.36507700692234</v>
       </c>
       <c r="L25">
-        <v>6.468015538027087</v>
+        <v>10.7950329996543</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.474837077529299</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.467383698775825</v>
       </c>
       <c r="O25">
-        <v>16.89847116131456</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.5367914349877</v>
+        <v>17.02875849325799</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.06755548502294</v>
       </c>
     </row>
   </sheetData>
